--- a/Info_Prop_Framework_Project/results/All_ResulstComparison.xlsx
+++ b/Info_Prop_Framework_Project/results/All_ResulstComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strath-my.sharepoint.com/personal/temitope_ohiani_strath_ac_uk/Documents/Documents/Programmming Files/Julia Files/InformationPropagation/Info_Prop_Framework_Project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{270546FF-2D91-4B4B-9E0A-1DD7309FE6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8399AB6-0722-41BB-8DCB-2DA6E9A4C93F}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{270546FF-2D91-4B4B-9E0A-1DD7309FE6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50B2ECA0-BACD-41F1-B473-5B05850C2EDF}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2490" windowWidth="27870" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{59F08DB6-0446-405D-A4A8-C234641C31BF}"/>
+    <workbookView xWindow="38280" yWindow="2490" windowWidth="27870" windowHeight="16440" xr2:uid="{59F08DB6-0446-405D-A4A8-C234641C31BF}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID_0.9x0.9_ExactComp" sheetId="1" r:id="rId1"/>
@@ -666,10 +666,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -989,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF11FE9-639C-4213-99EC-FF6E906D80FB}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,11 +1043,11 @@
         <v>0.86751</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D17" si="0">_xlfn.LET(_xlpm.a,VALUE($B3),_xlpm.e,VALUE($C3),ABS(_xlpm.a-_xlpm.e))</f>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B3),_xlpm.e,VALUE($C3),ABS(_xlpm.a-_xlpm.e))</f>
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E17" si="1">_xlfn.LET(_xlpm.a,VALUE($B3),_xlpm.e,VALUE($C3),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B3),_xlpm.e,VALUE($C3),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
         <v>0</v>
       </c>
     </row>
@@ -1066,11 +1062,11 @@
         <v>0.9</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B4),_xlpm.e,VALUE($C4),ABS(_xlpm.a-_xlpm.e))</f>
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B4),_xlpm.e,VALUE($C4),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
         <v>0</v>
       </c>
     </row>
@@ -1079,18 +1075,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>0.82520252240951597</v>
+        <v>0.82128971847010601</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>9.9920072216264089E-16</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B5),_xlpm.e,VALUE($C5),ABS(_xlpm.a-_xlpm.e))</f>
+        <v>3.9128039394089598E-3</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="1"/>
-        <v>1.2108551477097613E-15</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B5),_xlpm.e,VALUE($C5),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
+        <v>4.7416286707218664E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1104,11 +1100,11 @@
         <v>13</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B6),_xlpm.e,VALUE($C6),ABS(_xlpm.a-_xlpm.e))</f>
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B6),_xlpm.e,VALUE($C6),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
         <v>0</v>
       </c>
     </row>
@@ -1123,11 +1119,11 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B7),_xlpm.e,VALUE($C7),ABS(_xlpm.a-_xlpm.e))</f>
         <v>0</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B7),_xlpm.e,VALUE($C7),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
         <v>0</v>
       </c>
     </row>
@@ -1136,18 +1132,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.85978588636708697</v>
+        <v>0.85186337314727201</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B8),_xlpm.e,VALUE($C8),ABS(_xlpm.a-_xlpm.e))</f>
+        <v>7.9225132198149639E-3</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B8),_xlpm.e,VALUE($C8),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
+        <v>9.2145188068747091E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1155,18 +1151,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>0.69642656795734004</v>
+        <v>0.69000933224929095</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B9),_xlpm.e,VALUE($C9),ABS(_xlpm.a-_xlpm.e))</f>
+        <v>6.4172357080490849E-3</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B9),_xlpm.e,VALUE($C9),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
+        <v>9.2145188068732259E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1180,11 +1176,11 @@
         <v>0.84119310000000003</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B10),_xlpm.e,VALUE($C10),ABS(_xlpm.a-_xlpm.e))</f>
         <v>0</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B10),_xlpm.e,VALUE($C10),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
         <v>0</v>
       </c>
     </row>
@@ -1199,11 +1195,11 @@
         <v>11</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B11),_xlpm.e,VALUE($C11),ABS(_xlpm.a-_xlpm.e))</f>
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B11),_xlpm.e,VALUE($C11),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
         <v>0</v>
       </c>
     </row>
@@ -1212,18 +1208,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>0.81818309220232799</v>
+        <v>0.81385121487301704</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>9.9920072216264089E-16</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B12),_xlpm.e,VALUE($C12),ABS(_xlpm.a-_xlpm.e))</f>
+        <v>4.3318773293099522E-3</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>1.2212434254453531E-15</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B12),_xlpm.e,VALUE($C12),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
+        <v>5.2945084915525607E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1237,11 +1233,11 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B13),_xlpm.e,VALUE($C13),ABS(_xlpm.a-_xlpm.e))</f>
         <v>1.9984014443252818E-15</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B13),_xlpm.e,VALUE($C13),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
         <v>2.5380434332604811E-15</v>
       </c>
     </row>
@@ -1256,11 +1252,11 @@
         <v>0.9</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B14),_xlpm.e,VALUE($C14),ABS(_xlpm.a-_xlpm.e))</f>
         <v>0</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B14),_xlpm.e,VALUE($C14),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
         <v>0</v>
       </c>
     </row>
@@ -1269,18 +1265,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>0.81905852330100004</v>
+        <v>0.81905852330099904</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B15),_xlpm.e,VALUE($C15),ABS(_xlpm.a-_xlpm.e))</f>
+        <v>9.9920072216264089E-16</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B15),_xlpm.e,VALUE($C15),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
+        <v>1.2199381286402162E-15</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1288,18 +1284,18 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>0.83101708482305303</v>
+        <v>0.82952706495925899</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>4.9960036108132044E-15</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B16),_xlpm.e,VALUE($C16),ABS(_xlpm.a-_xlpm.e))</f>
+        <v>1.4900198637890494E-3</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="1"/>
-        <v>6.0119144384101616E-15</v>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B16),_xlpm.e,VALUE($C16),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
+        <v>1.793007497681381E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1313,17 +1309,17 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B17),_xlpm.e,VALUE($C17),ABS(_xlpm.a-_xlpm.e))</f>
         <v>1.1801670751765414E-13</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="1"/>
+        <f>_xlfn.LET(_xlpm.a,VALUE($B17),_xlpm.e,VALUE($C17),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
         <v>1.4386433406462515E-13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
-    <sortCondition ref="A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1334,7 +1330,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,32 +1357,32 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>0.77211603823084496</v>
+        <v>0.78591476108075997</v>
       </c>
       <c r="C2">
-        <v>0.77171100000000004</v>
+        <v>0.78524400000000005</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:D27" si="0">ABS($B2-$C2)</f>
-        <v>4.0503823084492296E-4</v>
+        <f>ABS($B2-$C2)</f>
+        <v>6.7076108075991847E-4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>0.80703719432274701</v>
+        <v>0.68089817829490595</v>
       </c>
       <c r="C3">
-        <v>0.80709200000000003</v>
+        <v>0.68030299999999999</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" si="0"/>
-        <v>5.4805677253022544E-5</v>
+        <f>ABS($B3-$C3)</f>
+        <v>5.9517829490596252E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1400,188 +1396,188 @@
         <v>0.41832399999999997</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" si="0"/>
+        <f>ABS($B4-$C4)</f>
         <v>4.7754860900001139E-4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.77799490129374105</v>
+        <v>0.69188552948721405</v>
       </c>
       <c r="C5">
-        <v>0.77791999999999994</v>
+        <v>0.69144899999999998</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="0"/>
-        <v>7.4901293741103103E-5</v>
+        <f>ABS($B5-$C5)</f>
+        <v>4.365294872140657E-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.77423056643700905</v>
+        <v>0.80166263356953704</v>
       </c>
       <c r="C6">
-        <v>0.77398</v>
+        <v>0.80209900000000001</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5056643700904768E-4</v>
+        <f>ABS($B6-$C6)</f>
+        <v>4.3636643046296442E-4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.74849064284688904</v>
+        <v>0.77211603823084496</v>
       </c>
       <c r="C7">
-        <v>0.74810900000000002</v>
+        <v>0.77171100000000004</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8164284688901873E-4</v>
+        <f>ABS($B7-$C7)</f>
+        <v>4.0503823084492296E-4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>0.72899999999999998</v>
+        <v>0.68201312181784501</v>
       </c>
       <c r="C8">
-        <v>0.72884800000000005</v>
+        <v>0.68239799999999995</v>
       </c>
       <c r="D8" s="8">
-        <f t="shared" si="0"/>
-        <v>1.5199999999992997E-4</v>
+        <f>ABS($B8-$C8)</f>
+        <v>3.8487818215493519E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>0.77053934874070296</v>
+        <v>0.41880154860899999</v>
       </c>
       <c r="C9">
-        <v>0.77071400000000001</v>
+        <v>0.419186</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.7465125929705394E-4</v>
+        <f>ABS($B9-$C9)</f>
+        <v>3.8445139100001802E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.63831969</v>
+        <v>0.74849064284688904</v>
       </c>
       <c r="C10">
-        <v>0.63798299999999997</v>
+        <v>0.74810900000000002</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>3.3669000000002836E-4</v>
+        <f>ABS($B10-$C10)</f>
+        <v>3.8164284688901873E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.80166263356953704</v>
+        <v>0.76571287830327595</v>
       </c>
       <c r="C11">
-        <v>0.80209900000000001</v>
+        <v>0.76609400000000005</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>4.3636643046296442E-4</v>
+        <f>ABS($B11-$C11)</f>
+        <v>3.8112169672410712E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>0.63831969</v>
       </c>
       <c r="C12">
-        <v>0.89981800000000001</v>
+        <v>0.63798299999999997</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="0"/>
-        <v>1.8200000000001548E-4</v>
+        <f>ABS($B12-$C12)</f>
+        <v>3.3669000000002836E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.69188552948721405</v>
+        <v>0.76052500914341803</v>
       </c>
       <c r="C13">
-        <v>0.69144899999999998</v>
+        <v>0.76020299999999996</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>4.365294872140657E-4</v>
+        <f>ABS($B13-$C13)</f>
+        <v>3.2200914341806719E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.80810862298535702</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="C14">
-        <v>0.80804200000000004</v>
+        <v>0.59075500000000003</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="0"/>
-        <v>6.6622985356978859E-5</v>
+        <f>ABS($B14-$C14)</f>
+        <v>2.6500000000007073E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>0.78047208533007995</v>
+        <v>0.77423056643700905</v>
       </c>
       <c r="C15">
-        <v>0.780582</v>
+        <v>0.77398</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0991466992005261E-4</v>
+        <f>ABS($B15-$C15)</f>
+        <v>2.5056643700904768E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.59048999999999996</v>
+        <v>0.51703894890000002</v>
       </c>
       <c r="C16">
-        <v>0.59075500000000003</v>
+        <v>0.51679299999999995</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="0"/>
-        <v>2.6500000000007073E-4</v>
+        <f>ABS($B16-$C16)</f>
+        <v>2.459489000000703E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1595,161 +1591,164 @@
         <v>0.75419899999999995</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="0"/>
+        <f>ABS($B17-$C17)</f>
         <v>1.9381090330194972E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>0.76052500914341803</v>
+        <v>0.9</v>
       </c>
       <c r="C18">
-        <v>0.76020299999999996</v>
+        <v>0.89981800000000001</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2200914341806719E-4</v>
+        <f>ABS($B18-$C18)</f>
+        <v>1.8200000000001548E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>0.780068194164099</v>
+        <v>0.77053934874070296</v>
       </c>
       <c r="C19">
-        <v>0.78003800000000001</v>
+        <v>0.77071400000000001</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="0"/>
-        <v>3.0194164098995557E-5</v>
+        <f>ABS($B19-$C19)</f>
+        <v>1.7465125929705394E-4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>0.68201312181784501</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C20">
-        <v>0.68239799999999995</v>
+        <v>0.72884800000000005</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8487818215493519E-4</v>
+        <f>ABS($B20-$C20)</f>
+        <v>1.5199999999992997E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>0.76571287830327595</v>
+        <v>0.78047208533007995</v>
       </c>
       <c r="C21">
-        <v>0.76609400000000005</v>
+        <v>0.780582</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8112169672410712E-4</v>
+        <f>ABS($B21-$C21)</f>
+        <v>1.0991466992005261E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>0.41880154860899999</v>
+        <v>0.77799490129374105</v>
       </c>
       <c r="C22">
-        <v>0.41874499999999998</v>
+        <v>0.77791999999999994</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
-        <v>5.6548609000006689E-5</v>
+        <f>ABS($B22-$C22)</f>
+        <v>7.4901293741103103E-5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>0.72899999999999998</v>
+        <v>0.80810862298535702</v>
       </c>
       <c r="C23">
-        <v>0.72895100000000002</v>
+        <v>0.80804200000000004</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="0"/>
-        <v>4.8999999999965738E-5</v>
+        <f>ABS($B23-$C23)</f>
+        <v>6.6622985356978859E-5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0.41880154860899999</v>
       </c>
       <c r="C24">
-        <v>0.419186</v>
+        <v>0.41874499999999998</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="0"/>
-        <v>3.8445139100001802E-4</v>
+        <f>ABS($B24-$C24)</f>
+        <v>5.6548609000006689E-5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>0.51703894890000002</v>
+        <v>0.80703719432274701</v>
       </c>
       <c r="C25">
-        <v>0.51679299999999995</v>
+        <v>0.80709200000000003</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="0"/>
-        <v>2.459489000000703E-4</v>
+        <f>ABS($B25-$C25)</f>
+        <v>5.4805677253022544E-5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>0.78591476108075997</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C26">
-        <v>0.78524400000000005</v>
+        <v>0.72895100000000002</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="0"/>
-        <v>6.7076108075991847E-4</v>
+        <f>ABS($B26-$C26)</f>
+        <v>4.8999999999965738E-5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>0.68089817829490595</v>
+        <v>0.780068194164099</v>
       </c>
       <c r="C27">
-        <v>0.68030299999999999</v>
+        <v>0.78003800000000001</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="0"/>
-        <v>5.9517829490596252E-4</v>
+        <f>ABS($B27-$C27)</f>
+        <v>3.0194164098995557E-5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
+    <sortCondition descending="1" ref="D2:D27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1759,7 +1758,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,444 +1782,444 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0.70665907372315895</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.70665907372316406</v>
       </c>
       <c r="D2">
         <f>ABS(B2-C2)</f>
-        <v>0</v>
+        <v>5.1070259132757201E-15</v>
       </c>
       <c r="E2">
         <f>IF(C2=0, NA(), ABS(B2-C2)/ABS(C2))</f>
-        <v>0</v>
+        <v>7.2270011143682193E-15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>0.72899999999999998</v>
+        <v>0.57239384971575902</v>
       </c>
       <c r="C3">
-        <v>0.72899999999999998</v>
+        <v>0.57239384971576301</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D24" si="0">ABS(B3-C3)</f>
-        <v>0</v>
+        <f>ABS(B3-C3)</f>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E24" si="1">IF(C3=0, NA(), ABS(B3-C3)/ABS(C3))</f>
-        <v>0</v>
+        <f>IF(C3=0, NA(), ABS(B3-C3)/ABS(C3))</f>
+        <v>6.982609772336442E-15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.59048999999999996</v>
+        <v>0.70748716150525304</v>
       </c>
       <c r="C4">
-        <v>0.59048999999999996</v>
+        <v>0.70748716150525404</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ABS(B4-C4)</f>
+        <v>9.9920072216264089E-16</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(C4=0, NA(), ABS(B4-C4)/ABS(C4))</f>
+        <v>1.4123234689329702E-15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>0.47829690000000002</v>
+        <v>0.71220833762019997</v>
       </c>
       <c r="C5">
-        <v>0.47829690000000002</v>
+        <v>0.71220833762020097</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>ABS(B5-C5)</f>
+        <v>9.9920072216264089E-16</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(C5=0, NA(), ABS(B5-C5)/ABS(C5))</f>
+        <v>1.4029612816685167E-15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.58328785251899995</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>0.58328785251899995</v>
+        <v>0.9</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>ABS(B6-C6)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f>IF(C6=0, NA(), ABS(B6-C6)/ABS(C6))</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0.59048999999999996</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C7">
-        <v>0.59048999999999996</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>ABS(B7-C7)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f>IF(C7=0, NA(), ABS(B7-C7)/ABS(C7))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>ABS(B8-C8)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f>IF(C8=0, NA(), ABS(B8-C8)/ABS(C8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.72899999999999998</v>
+        <v>0.47829690000000002</v>
       </c>
       <c r="C9">
-        <v>0.72899999999999998</v>
+        <v>0.47829690000000002</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>ABS(B9-C9)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>IF(C9=0, NA(), ABS(B9-C9)/ABS(C9))</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.59048999999999996</v>
+        <v>0.58328785251899995</v>
       </c>
       <c r="C10">
-        <v>0.59048999999999996</v>
+        <v>0.58328785251899995</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>ABS(B10-C10)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>IF(C10=0, NA(), ABS(B10-C10)/ABS(C10))</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.75497630391000004</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="C11">
-        <v>0.75497630391000004</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>ABS(B11-C11)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f>IF(C11=0, NA(), ABS(B11-C11)/ABS(C11))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.73851360573838398</v>
+        <v>0.9</v>
       </c>
       <c r="C12">
-        <v>0.73851360573838398</v>
+        <v>0.9</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f>ABS(B12-C12)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>IF(C12=0, NA(), ABS(B12-C12)/ABS(C12))</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>0.59048999999999996</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C13">
-        <v>0.59048999999999996</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f>ABS(B13-C13)</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f>IF(C13=0, NA(), ABS(B13-C13)/ABS(C13))</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>0.69967376603964404</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="C14">
-        <v>0.69967376603964404</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>ABS(B14-C14)</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f>IF(C14=0, NA(), ABS(B14-C14)/ABS(C14))</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>0.70748716150525304</v>
+        <v>0.75497630391000004</v>
       </c>
       <c r="C15">
-        <v>0.70748716150525404</v>
+        <v>0.75497630391000004</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>9.9920072216264089E-16</v>
+        <f>ABS(B15-C15)</f>
+        <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>1.4123234689329702E-15</v>
+        <f>IF(C15=0, NA(), ABS(B15-C15)/ABS(C15))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>0.59048999999999996</v>
+        <v>0.73851360573838398</v>
       </c>
       <c r="C16">
-        <v>0.59048999999999996</v>
+        <v>0.73851360573838398</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>ABS(B16-C16)</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f>IF(C16=0, NA(), ABS(B16-C16)/ABS(C16))</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>0.72899999999999998</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="C17">
-        <v>0.72899999999999998</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f>ABS(B17-C17)</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f>IF(C17=0, NA(), ABS(B17-C17)/ABS(C17))</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>0.59048999999999996</v>
+        <v>0.69967376603964404</v>
       </c>
       <c r="C18">
-        <v>0.59048999999999996</v>
+        <v>0.69967376603964404</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f>ABS(B18-C18)</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f>IF(C18=0, NA(), ABS(B18-C18)/ABS(C18))</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>0.9</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="C19">
-        <v>0.9</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f>ABS(B19-C19)</f>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f>IF(C19=0, NA(), ABS(B19-C19)/ABS(C19))</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>0.59819602064809096</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C20">
-        <v>0.59819602064809096</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f>ABS(B20-C20)</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f>IF(C20=0, NA(), ABS(B20-C20)/ABS(C20))</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>0.48453877672495399</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="C21">
-        <v>0.48453877672495399</v>
+        <v>0.59048999999999996</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f>ABS(B21-C21)</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f>IF(C21=0, NA(), ABS(B21-C21)/ABS(C21))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>0.71220833762019997</v>
+        <v>0.9</v>
       </c>
       <c r="C22">
-        <v>0.71220833762020097</v>
+        <v>0.9</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>9.9920072216264089E-16</v>
+        <f>ABS(B22-C22)</f>
+        <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>1.4029612816685167E-15</v>
+        <f>IF(C22=0, NA(), ABS(B22-C22)/ABS(C22))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>0.70665907372315895</v>
+        <v>0.59819602064809096</v>
       </c>
       <c r="C23">
-        <v>0.70665907372316406</v>
+        <v>0.59819602064809096</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>5.1070259132757201E-15</v>
+        <f>ABS(B23-C23)</f>
+        <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>7.2270011143682193E-15</v>
+        <f>IF(C23=0, NA(), ABS(B23-C23)/ABS(C23))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>0.57239384971575902</v>
+        <v>0.48453877672495399</v>
       </c>
       <c r="C24">
-        <v>0.57239384971576301</v>
+        <v>0.48453877672495399</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>3.9968028886505635E-15</v>
+        <f>ABS(B24-C24)</f>
+        <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>6.982609772336442E-15</v>
+        <f>IF(C24=0, NA(), ABS(B24-C24)/ABS(C24))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
+    <sortCondition descending="1" ref="D2:D24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2231,7 +2230,7 @@
   <dimension ref="A1:E307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8079,8 +8078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383D069F-662D-4D97-A0CF-739963C8F8F5}">
   <dimension ref="A1:D1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Info_Prop_Framework_Project/results/All_ResulstComparison.xlsx
+++ b/Info_Prop_Framework_Project/results/All_ResulstComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strath-my.sharepoint.com/personal/temitope_ohiani_strath_ac_uk/Documents/Documents/Programmming Files/Julia Files/InformationPropagation/Info_Prop_Framework_Project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{270546FF-2D91-4B4B-9E0A-1DD7309FE6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50B2ECA0-BACD-41F1-B473-5B05850C2EDF}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{270546FF-2D91-4B4B-9E0A-1DD7309FE6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56B0B6F6-2C10-4036-B286-F34D03895791}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2490" windowWidth="27870" windowHeight="16440" xr2:uid="{59F08DB6-0446-405D-A4A8-C234641C31BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{59F08DB6-0446-405D-A4A8-C234641C31BF}"/>
   </bookViews>
   <sheets>
     <sheet name="GRID_0.9x0.9_ExactComp" sheetId="1" r:id="rId1"/>
@@ -666,6 +666,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -986,7 +990,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,59 +1019,59 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C2">
-        <v>0.9</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.82033332503841405</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B2),_xlpm.e,VALUE($C2),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>0</v>
+        <v>1.1801670751765414E-13</v>
       </c>
       <c r="E2" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B2),_xlpm.e,VALUE($C2),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>0</v>
+        <v>1.4386433406462515E-13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.86751</v>
-      </c>
-      <c r="C3">
-        <v>0.86751</v>
+      <c r="A3" s="4">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.83101708482305203</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B3),_xlpm.e,VALUE($C3),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>0</v>
+        <v>3.9968028886505635E-15</v>
       </c>
       <c r="E3" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B3),_xlpm.e,VALUE($C3),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>0</v>
+        <v>4.8095315507281293E-15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C4">
-        <v>0.9</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.78737874148909004</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B4),_xlpm.e,VALUE($C4),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>0</v>
+        <v>1.9984014443252818E-15</v>
       </c>
       <c r="E4" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B4),_xlpm.e,VALUE($C4),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>0</v>
+        <v>2.5380434332604811E-15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1075,105 +1079,105 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>0.82128971847010601</v>
+        <v>0.82520252240951597</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B5),_xlpm.e,VALUE($C5),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>3.9128039394089598E-3</v>
+        <v>9.9920072216264089E-16</v>
       </c>
       <c r="E5" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B5),_xlpm.e,VALUE($C5),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>4.7416286707218664E-3</v>
+        <v>1.2108551477097613E-15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
+      <c r="A6" s="4">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.81818309220232799</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B6),_xlpm.e,VALUE($C6),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>0</v>
+        <v>9.9920072216264089E-16</v>
       </c>
       <c r="E6" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B6),_xlpm.e,VALUE($C6),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>0</v>
+        <v>1.2212434254453531E-15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>0.86588444701245304</v>
+        <v>0.81905852330099904</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B7),_xlpm.e,VALUE($C7),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>0</v>
+        <v>9.9920072216264089E-16</v>
       </c>
       <c r="E7" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B7),_xlpm.e,VALUE($C7),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>0</v>
+        <v>1.2199381286402162E-15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.85186337314727201</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
+        <v>0.9</v>
       </c>
       <c r="D8" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B8),_xlpm.e,VALUE($C8),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>7.9225132198149639E-3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B8),_xlpm.e,VALUE($C8),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>9.2145188068747091E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.69000933224929095</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.86751</v>
+      </c>
+      <c r="C9">
+        <v>0.86751</v>
       </c>
       <c r="D9" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B9),_xlpm.e,VALUE($C9),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>6.4172357080490849E-3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B9),_xlpm.e,VALUE($C9),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>9.2145188068732259E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>0.84119310000000003</v>
+        <v>0.9</v>
       </c>
       <c r="C10">
-        <v>0.84119310000000003</v>
+        <v>0.9</v>
       </c>
       <c r="D10" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B10),_xlpm.e,VALUE($C10),ABS(_xlpm.a-_xlpm.e))</f>
@@ -1186,13 +1190,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
-        <v>0.68136641099999995</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B11),_xlpm.e,VALUE($C11),ABS(_xlpm.a-_xlpm.e))</f>
@@ -1204,52 +1208,52 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.81385121487301704</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="A12">
         <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.86588444701245304</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D12" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B12),_xlpm.e,VALUE($C12),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>4.3318773293099522E-3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B12),_xlpm.e,VALUE($C12),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>5.2945084915525607E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.85978588636708697</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.78737874148909004</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D13" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B13),_xlpm.e,VALUE($C13),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>1.9984014443252818E-15</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B13),_xlpm.e,VALUE($C13),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>2.5380434332604811E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C14">
-        <v>0.9</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.69642656795734004</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B14),_xlpm.e,VALUE($C14),ABS(_xlpm.a-_xlpm.e))</f>
@@ -1262,64 +1266,64 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.81905852330099904</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.84119310000000003</v>
+      </c>
+      <c r="C15">
+        <v>0.84119310000000003</v>
       </c>
       <c r="D15" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B15),_xlpm.e,VALUE($C15),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>9.9920072216264089E-16</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B15),_xlpm.e,VALUE($C15),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>1.2199381286402162E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.82952706495925899</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>4</v>
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.68136641099999995</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B16),_xlpm.e,VALUE($C16),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>1.4900198637890494E-3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B16),_xlpm.e,VALUE($C16),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>1.793007497681381E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.82033332503841405</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C17">
+        <v>0.9</v>
       </c>
       <c r="D17" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B17),_xlpm.e,VALUE($C17),ABS(_xlpm.a-_xlpm.e))</f>
-        <v>1.1801670751765414E-13</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7">
         <f>_xlfn.LET(_xlpm.a,VALUE($B17),_xlpm.e,VALUE($C17),IF(_xlpm.e=0,NA(),ABS(_xlpm.a-_xlpm.e)/ABS(_xlpm.e)))</f>
-        <v>1.4386433406462515E-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
-    <sortCondition ref="A2:A17"/>
+    <sortCondition descending="1" ref="D2:D17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1330,7 +1334,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A1:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1370,7 @@
         <v>0.78524400000000005</v>
       </c>
       <c r="D2" s="8">
-        <f>ABS($B2-$C2)</f>
+        <f t="shared" ref="D2:D27" si="0">ABS($B2-$C2)</f>
         <v>6.7076108075991847E-4</v>
       </c>
     </row>
@@ -1381,7 +1385,7 @@
         <v>0.68030299999999999</v>
       </c>
       <c r="D3" s="8">
-        <f>ABS($B3-$C3)</f>
+        <f t="shared" si="0"/>
         <v>5.9517829490596252E-4</v>
       </c>
     </row>
@@ -1396,7 +1400,7 @@
         <v>0.41832399999999997</v>
       </c>
       <c r="D4" s="8">
-        <f>ABS($B4-$C4)</f>
+        <f t="shared" si="0"/>
         <v>4.7754860900001139E-4</v>
       </c>
     </row>
@@ -1411,7 +1415,7 @@
         <v>0.69144899999999998</v>
       </c>
       <c r="D5" s="8">
-        <f>ABS($B5-$C5)</f>
+        <f t="shared" si="0"/>
         <v>4.365294872140657E-4</v>
       </c>
     </row>
@@ -1426,7 +1430,7 @@
         <v>0.80209900000000001</v>
       </c>
       <c r="D6" s="8">
-        <f>ABS($B6-$C6)</f>
+        <f t="shared" si="0"/>
         <v>4.3636643046296442E-4</v>
       </c>
     </row>
@@ -1441,7 +1445,7 @@
         <v>0.77171100000000004</v>
       </c>
       <c r="D7" s="8">
-        <f>ABS($B7-$C7)</f>
+        <f t="shared" si="0"/>
         <v>4.0503823084492296E-4</v>
       </c>
     </row>
@@ -1456,7 +1460,7 @@
         <v>0.68239799999999995</v>
       </c>
       <c r="D8" s="8">
-        <f>ABS($B8-$C8)</f>
+        <f t="shared" si="0"/>
         <v>3.8487818215493519E-4</v>
       </c>
     </row>
@@ -1471,7 +1475,7 @@
         <v>0.419186</v>
       </c>
       <c r="D9" s="8">
-        <f>ABS($B9-$C9)</f>
+        <f t="shared" si="0"/>
         <v>3.8445139100001802E-4</v>
       </c>
     </row>
@@ -1486,7 +1490,7 @@
         <v>0.74810900000000002</v>
       </c>
       <c r="D10" s="8">
-        <f>ABS($B10-$C10)</f>
+        <f t="shared" si="0"/>
         <v>3.8164284688901873E-4</v>
       </c>
     </row>
@@ -1501,7 +1505,7 @@
         <v>0.76609400000000005</v>
       </c>
       <c r="D11" s="8">
-        <f>ABS($B11-$C11)</f>
+        <f t="shared" si="0"/>
         <v>3.8112169672410712E-4</v>
       </c>
     </row>
@@ -1516,7 +1520,7 @@
         <v>0.63798299999999997</v>
       </c>
       <c r="D12" s="8">
-        <f>ABS($B12-$C12)</f>
+        <f t="shared" si="0"/>
         <v>3.3669000000002836E-4</v>
       </c>
     </row>
@@ -1531,7 +1535,7 @@
         <v>0.76020299999999996</v>
       </c>
       <c r="D13" s="8">
-        <f>ABS($B13-$C13)</f>
+        <f t="shared" si="0"/>
         <v>3.2200914341806719E-4</v>
       </c>
     </row>
@@ -1546,7 +1550,7 @@
         <v>0.59075500000000003</v>
       </c>
       <c r="D14" s="8">
-        <f>ABS($B14-$C14)</f>
+        <f t="shared" si="0"/>
         <v>2.6500000000007073E-4</v>
       </c>
     </row>
@@ -1561,7 +1565,7 @@
         <v>0.77398</v>
       </c>
       <c r="D15" s="8">
-        <f>ABS($B15-$C15)</f>
+        <f t="shared" si="0"/>
         <v>2.5056643700904768E-4</v>
       </c>
     </row>
@@ -1576,7 +1580,7 @@
         <v>0.51679299999999995</v>
       </c>
       <c r="D16" s="8">
-        <f>ABS($B16-$C16)</f>
+        <f t="shared" si="0"/>
         <v>2.459489000000703E-4</v>
       </c>
     </row>
@@ -1591,7 +1595,7 @@
         <v>0.75419899999999995</v>
       </c>
       <c r="D17" s="8">
-        <f>ABS($B17-$C17)</f>
+        <f t="shared" si="0"/>
         <v>1.9381090330194972E-4</v>
       </c>
     </row>
@@ -1606,7 +1610,7 @@
         <v>0.89981800000000001</v>
       </c>
       <c r="D18" s="8">
-        <f>ABS($B18-$C18)</f>
+        <f t="shared" si="0"/>
         <v>1.8200000000001548E-4</v>
       </c>
     </row>
@@ -1621,7 +1625,7 @@
         <v>0.77071400000000001</v>
       </c>
       <c r="D19" s="8">
-        <f>ABS($B19-$C19)</f>
+        <f t="shared" si="0"/>
         <v>1.7465125929705394E-4</v>
       </c>
     </row>
@@ -1636,7 +1640,7 @@
         <v>0.72884800000000005</v>
       </c>
       <c r="D20" s="8">
-        <f>ABS($B20-$C20)</f>
+        <f t="shared" si="0"/>
         <v>1.5199999999992997E-4</v>
       </c>
     </row>
@@ -1651,7 +1655,7 @@
         <v>0.780582</v>
       </c>
       <c r="D21" s="8">
-        <f>ABS($B21-$C21)</f>
+        <f t="shared" si="0"/>
         <v>1.0991466992005261E-4</v>
       </c>
     </row>
@@ -1666,7 +1670,7 @@
         <v>0.77791999999999994</v>
       </c>
       <c r="D22" s="8">
-        <f>ABS($B22-$C22)</f>
+        <f t="shared" si="0"/>
         <v>7.4901293741103103E-5</v>
       </c>
     </row>
@@ -1681,7 +1685,7 @@
         <v>0.80804200000000004</v>
       </c>
       <c r="D23" s="8">
-        <f>ABS($B23-$C23)</f>
+        <f t="shared" si="0"/>
         <v>6.6622985356978859E-5</v>
       </c>
     </row>
@@ -1696,7 +1700,7 @@
         <v>0.41874499999999998</v>
       </c>
       <c r="D24" s="8">
-        <f>ABS($B24-$C24)</f>
+        <f t="shared" si="0"/>
         <v>5.6548609000006689E-5</v>
       </c>
     </row>
@@ -1711,7 +1715,7 @@
         <v>0.80709200000000003</v>
       </c>
       <c r="D25" s="8">
-        <f>ABS($B25-$C25)</f>
+        <f t="shared" si="0"/>
         <v>5.4805677253022544E-5</v>
       </c>
     </row>
@@ -1726,7 +1730,7 @@
         <v>0.72895100000000002</v>
       </c>
       <c r="D26" s="8">
-        <f>ABS($B26-$C26)</f>
+        <f t="shared" si="0"/>
         <v>4.8999999999965738E-5</v>
       </c>
     </row>
@@ -1741,7 +1745,7 @@
         <v>0.78003800000000001</v>
       </c>
       <c r="D27" s="8">
-        <f>ABS($B27-$C27)</f>
+        <f t="shared" si="0"/>
         <v>3.0194164098995557E-5</v>
       </c>
     </row>
@@ -1758,7 +1762,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D14" sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1791,11 +1795,11 @@
         <v>0.70665907372316406</v>
       </c>
       <c r="D2">
-        <f>ABS(B2-C2)</f>
+        <f t="shared" ref="D2:D24" si="0">ABS(B2-C2)</f>
         <v>5.1070259132757201E-15</v>
       </c>
       <c r="E2">
-        <f>IF(C2=0, NA(), ABS(B2-C2)/ABS(C2))</f>
+        <f t="shared" ref="E2:E24" si="1">IF(C2=0, NA(), ABS(B2-C2)/ABS(C2))</f>
         <v>7.2270011143682193E-15</v>
       </c>
     </row>
@@ -1810,11 +1814,11 @@
         <v>0.57239384971576301</v>
       </c>
       <c r="D3">
-        <f>ABS(B3-C3)</f>
+        <f t="shared" si="0"/>
         <v>3.9968028886505635E-15</v>
       </c>
       <c r="E3">
-        <f>IF(C3=0, NA(), ABS(B3-C3)/ABS(C3))</f>
+        <f t="shared" si="1"/>
         <v>6.982609772336442E-15</v>
       </c>
     </row>
@@ -1829,11 +1833,11 @@
         <v>0.70748716150525404</v>
       </c>
       <c r="D4">
-        <f>ABS(B4-C4)</f>
+        <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
       <c r="E4">
-        <f>IF(C4=0, NA(), ABS(B4-C4)/ABS(C4))</f>
+        <f t="shared" si="1"/>
         <v>1.4123234689329702E-15</v>
       </c>
     </row>
@@ -1848,11 +1852,11 @@
         <v>0.71220833762020097</v>
       </c>
       <c r="D5">
-        <f>ABS(B5-C5)</f>
+        <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
       <c r="E5">
-        <f>IF(C5=0, NA(), ABS(B5-C5)/ABS(C5))</f>
+        <f t="shared" si="1"/>
         <v>1.4029612816685167E-15</v>
       </c>
     </row>
@@ -1867,11 +1871,11 @@
         <v>0.9</v>
       </c>
       <c r="D6">
-        <f>ABS(B6-C6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>IF(C6=0, NA(), ABS(B6-C6)/ABS(C6))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1886,11 +1890,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="D7">
-        <f>ABS(B7-C7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>IF(C7=0, NA(), ABS(B7-C7)/ABS(C7))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1905,11 +1909,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D8">
-        <f>ABS(B8-C8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>IF(C8=0, NA(), ABS(B8-C8)/ABS(C8))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1924,11 +1928,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D9">
-        <f>ABS(B9-C9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>IF(C9=0, NA(), ABS(B9-C9)/ABS(C9))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1943,11 +1947,11 @@
         <v>0.58328785251899995</v>
       </c>
       <c r="D10">
-        <f>ABS(B10-C10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>IF(C10=0, NA(), ABS(B10-C10)/ABS(C10))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1962,11 +1966,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D11">
-        <f>ABS(B11-C11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>IF(C11=0, NA(), ABS(B11-C11)/ABS(C11))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1981,11 +1985,11 @@
         <v>0.9</v>
       </c>
       <c r="D12">
-        <f>ABS(B12-C12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>IF(C12=0, NA(), ABS(B12-C12)/ABS(C12))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2000,11 +2004,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="D13">
-        <f>ABS(B13-C13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>IF(C13=0, NA(), ABS(B13-C13)/ABS(C13))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2019,11 +2023,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D14">
-        <f>ABS(B14-C14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>IF(C14=0, NA(), ABS(B14-C14)/ABS(C14))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2038,11 +2042,11 @@
         <v>0.75497630391000004</v>
       </c>
       <c r="D15">
-        <f>ABS(B15-C15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>IF(C15=0, NA(), ABS(B15-C15)/ABS(C15))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2057,11 +2061,11 @@
         <v>0.73851360573838398</v>
       </c>
       <c r="D16">
-        <f>ABS(B16-C16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>IF(C16=0, NA(), ABS(B16-C16)/ABS(C16))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2076,11 +2080,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D17">
-        <f>ABS(B17-C17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>IF(C17=0, NA(), ABS(B17-C17)/ABS(C17))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2095,11 +2099,11 @@
         <v>0.69967376603964404</v>
       </c>
       <c r="D18">
-        <f>ABS(B18-C18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>IF(C18=0, NA(), ABS(B18-C18)/ABS(C18))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2114,11 +2118,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D19">
-        <f>ABS(B19-C19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>IF(C19=0, NA(), ABS(B19-C19)/ABS(C19))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2133,11 +2137,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="D20">
-        <f>ABS(B20-C20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>IF(C20=0, NA(), ABS(B20-C20)/ABS(C20))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2152,11 +2156,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D21">
-        <f>ABS(B21-C21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>IF(C21=0, NA(), ABS(B21-C21)/ABS(C21))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2171,11 +2175,11 @@
         <v>0.9</v>
       </c>
       <c r="D22">
-        <f>ABS(B22-C22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>IF(C22=0, NA(), ABS(B22-C22)/ABS(C22))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2190,11 +2194,11 @@
         <v>0.59819602064809096</v>
       </c>
       <c r="D23">
-        <f>ABS(B23-C23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>IF(C23=0, NA(), ABS(B23-C23)/ABS(C23))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2209,11 +2213,11 @@
         <v>0.48453877672495399</v>
       </c>
       <c r="D24">
-        <f>ABS(B24-C24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>IF(C24=0, NA(), ABS(B24-C24)/ABS(C24))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2227,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7F6535-366B-41A5-B9CE-50AF53C56F4F}">
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E1042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A1:E307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,11 +2267,11 @@
         <v>0.45667607553791001</v>
       </c>
       <c r="D2">
-        <f>ABS(B2-C2)</f>
+        <f t="shared" ref="D2:D65" si="0">ABS(B2-C2)</f>
         <v>4.9960036108132044E-15</v>
       </c>
       <c r="E2">
-        <f>IF(C2=0, NA(), ABS(B2-C2)/ABS(C2))</f>
+        <f t="shared" ref="E2:E65" si="1">IF(C2=0, NA(), ABS(B2-C2)/ABS(C2))</f>
         <v>1.0939928492922489E-14</v>
       </c>
     </row>
@@ -2282,11 +2286,11 @@
         <v>0.36910984310559503</v>
       </c>
       <c r="D3">
-        <f>ABS(B3-C3)</f>
+        <f t="shared" si="0"/>
         <v>1.9984014443252818E-15</v>
       </c>
       <c r="E3">
-        <f>IF(C3=0, NA(), ABS(B3-C3)/ABS(C3))</f>
+        <f t="shared" si="1"/>
         <v>5.4141104109043729E-15</v>
       </c>
     </row>
@@ -2301,11 +2305,11 @@
         <v>0.36957301520061597</v>
       </c>
       <c r="D4">
-        <f>ABS(B4-C4)</f>
+        <f t="shared" si="0"/>
         <v>1.0547118733938987E-15</v>
       </c>
       <c r="E4">
-        <f>IF(C4=0, NA(), ABS(B4-C4)/ABS(C4))</f>
+        <f t="shared" si="1"/>
         <v>2.8538660292104053E-15</v>
       </c>
     </row>
@@ -2320,11 +2324,11 @@
         <v>0.26168762889229902</v>
       </c>
       <c r="D5">
-        <f>ABS(B5-C5)</f>
+        <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
       <c r="E5">
-        <f>IF(C5=0, NA(), ABS(B5-C5)/ABS(C5))</f>
+        <f t="shared" si="1"/>
         <v>3.8182956007212521E-15</v>
       </c>
     </row>
@@ -2339,11 +2343,11 @@
         <v>0.27477569604236501</v>
       </c>
       <c r="D6">
-        <f>ABS(B6-C6)</f>
+        <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
       <c r="E6">
-        <f>IF(C6=0, NA(), ABS(B6-C6)/ABS(C6))</f>
+        <f t="shared" si="1"/>
         <v>3.6364232228478599E-15</v>
       </c>
     </row>
@@ -2358,11 +2362,11 @@
         <v>0.788049</v>
       </c>
       <c r="D7">
-        <f>ABS(B7-C7)</f>
+        <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
       <c r="E7">
-        <f>IF(C7=0, NA(), ABS(B7-C7)/ABS(C7))</f>
+        <f t="shared" si="1"/>
         <v>1.2679423768860069E-15</v>
       </c>
     </row>
@@ -2377,11 +2381,11 @@
         <v>0.26168762889229902</v>
       </c>
       <c r="D8">
-        <f>ABS(B8-C8)</f>
+        <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
       <c r="E8">
-        <f>IF(C8=0, NA(), ABS(B8-C8)/ABS(C8))</f>
+        <f t="shared" si="1"/>
         <v>3.8182956007212521E-15</v>
       </c>
     </row>
@@ -2396,11 +2400,11 @@
         <v>0.39522795882563899</v>
       </c>
       <c r="D9">
-        <f>ABS(B9-C9)</f>
+        <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
       <c r="E9">
-        <f>IF(C9=0, NA(), ABS(B9-C9)/ABS(C9))</f>
+        <f t="shared" si="1"/>
         <v>2.5281630508418912E-15</v>
       </c>
     </row>
@@ -2415,11 +2419,11 @@
         <v>0.34229916206871402</v>
       </c>
       <c r="D10">
-        <f>ABS(B10-C10)</f>
+        <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
       <c r="E10">
-        <f>IF(C10=0, NA(), ABS(B10-C10)/ABS(C10))</f>
+        <f t="shared" si="1"/>
         <v>2.9190860886830296E-15</v>
       </c>
     </row>
@@ -2434,11 +2438,11 @@
         <v>0.106601736708204</v>
       </c>
       <c r="D11">
-        <f>ABS(B11-C11)</f>
+        <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
       <c r="E11">
-        <f>IF(C11=0, NA(), ABS(B11-C11)/ABS(C11))</f>
+        <f t="shared" si="1"/>
         <v>9.3732124167705339E-15</v>
       </c>
     </row>
@@ -2453,11 +2457,11 @@
         <v>9.5808361073443593E-2</v>
       </c>
       <c r="D12">
-        <f>ABS(B12-C12)</f>
+        <f t="shared" si="0"/>
         <v>9.7144514654701197E-17</v>
       </c>
       <c r="E12">
-        <f>IF(C12=0, NA(), ABS(B12-C12)/ABS(C12))</f>
+        <f t="shared" si="1"/>
         <v>1.0139461062300538E-15</v>
       </c>
     </row>
@@ -2472,11 +2476,11 @@
         <v>9.5808361073443593E-2</v>
       </c>
       <c r="D13">
-        <f>ABS(B13-C13)</f>
+        <f t="shared" si="0"/>
         <v>9.7144514654701197E-17</v>
       </c>
       <c r="E13">
-        <f>IF(C13=0, NA(), ABS(B13-C13)/ABS(C13))</f>
+        <f t="shared" si="1"/>
         <v>1.0139461062300538E-15</v>
       </c>
     </row>
@@ -2491,11 +2495,11 @@
         <v>2.5031555049932399E-2</v>
       </c>
       <c r="D14">
-        <f>ABS(B14-C14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>IF(C14=0, NA(), ABS(B14-C14)/ABS(C14))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2510,11 +2514,11 @@
         <v>3.0903154382632601E-2</v>
       </c>
       <c r="D15">
-        <f>ABS(B15-C15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>IF(C15=0, NA(), ABS(B15-C15)/ABS(C15))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2529,11 +2533,11 @@
         <v>3.8152042447694601E-2</v>
       </c>
       <c r="D16">
-        <f>ABS(B16-C16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>IF(C16=0, NA(), ABS(B16-C16)/ABS(C16))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2548,11 +2552,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D17">
-        <f>ABS(B17-C17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>IF(C17=0, NA(), ABS(B17-C17)/ABS(C17))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2567,11 +2571,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D18">
-        <f>ABS(B18-C18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>IF(C18=0, NA(), ABS(B18-C18)/ABS(C18))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2586,11 +2590,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D19">
-        <f>ABS(B19-C19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>IF(C19=0, NA(), ABS(B19-C19)/ABS(C19))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2605,11 +2609,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D20">
-        <f>ABS(B20-C20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>IF(C20=0, NA(), ABS(B20-C20)/ABS(C20))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2624,11 +2628,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D21">
-        <f>ABS(B21-C21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>IF(C21=0, NA(), ABS(B21-C21)/ABS(C21))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2643,11 +2647,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D22">
-        <f>ABS(B22-C22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>IF(C22=0, NA(), ABS(B22-C22)/ABS(C22))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2662,11 +2666,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D23">
-        <f>ABS(B23-C23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>IF(C23=0, NA(), ABS(B23-C23)/ABS(C23))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2681,11 +2685,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D24">
-        <f>ABS(B24-C24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>IF(C24=0, NA(), ABS(B24-C24)/ABS(C24))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2700,11 +2704,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D25">
-        <f>ABS(B25-C25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>IF(C25=0, NA(), ABS(B25-C25)/ABS(C25))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2719,11 +2723,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D26">
-        <f>ABS(B26-C26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>IF(C26=0, NA(), ABS(B26-C26)/ABS(C26))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2738,11 +2742,11 @@
         <v>0.38742048899999998</v>
       </c>
       <c r="D27">
-        <f>ABS(B27-C27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>IF(C27=0, NA(), ABS(B27-C27)/ABS(C27))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2757,11 +2761,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D28">
-        <f>ABS(B28-C28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>IF(C28=0, NA(), ABS(B28-C28)/ABS(C28))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2776,11 +2780,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D29">
-        <f>ABS(B29-C29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>IF(C29=0, NA(), ABS(B29-C29)/ABS(C29))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2795,11 +2799,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="D30">
-        <f>ABS(B30-C30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>IF(C30=0, NA(), ABS(B30-C30)/ABS(C30))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2814,11 +2818,11 @@
         <v>0.9</v>
       </c>
       <c r="D31">
-        <f>ABS(B31-C31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>IF(C31=0, NA(), ABS(B31-C31)/ABS(C31))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2833,11 +2837,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="D32">
-        <f>ABS(B32-C32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>IF(C32=0, NA(), ABS(B32-C32)/ABS(C32))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2852,11 +2856,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D33">
-        <f>ABS(B33-C33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>IF(C33=0, NA(), ABS(B33-C33)/ABS(C33))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2871,11 +2875,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D34">
-        <f>ABS(B34-C34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>IF(C34=0, NA(), ABS(B34-C34)/ABS(C34))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2890,11 +2894,11 @@
         <v>0.38742048899999998</v>
       </c>
       <c r="D35">
-        <f>ABS(B35-C35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>IF(C35=0, NA(), ABS(B35-C35)/ABS(C35))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2909,11 +2913,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D36">
-        <f>ABS(B36-C36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>IF(C36=0, NA(), ABS(B36-C36)/ABS(C36))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2928,11 +2932,11 @@
         <v>0.32307114678061599</v>
       </c>
       <c r="D37">
-        <f>ABS(B37-C37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>IF(C37=0, NA(), ABS(B37-C37)/ABS(C37))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2947,11 +2951,11 @@
         <v>0.21196697940276199</v>
       </c>
       <c r="D38">
-        <f>ABS(B38-C38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>IF(C38=0, NA(), ABS(B38-C38)/ABS(C38))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2966,11 +2970,11 @@
         <v>0.171693253316237</v>
       </c>
       <c r="D39">
-        <f>ABS(B39-C39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>IF(C39=0, NA(), ABS(B39-C39)/ABS(C39))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2985,11 +2989,11 @@
         <v>0.13907153518615201</v>
       </c>
       <c r="D40">
-        <f>ABS(B40-C40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>IF(C40=0, NA(), ABS(B40-C40)/ABS(C40))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3004,11 +3008,11 @@
         <v>0.112647943500783</v>
       </c>
       <c r="D41">
-        <f>ABS(B41-C41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>IF(C41=0, NA(), ABS(B41-C41)/ABS(C41))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3023,11 +3027,11 @@
         <v>9.1244834235634495E-2</v>
       </c>
       <c r="D42">
-        <f>ABS(B42-C42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>IF(C42=0, NA(), ABS(B42-C42)/ABS(C42))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3042,11 +3046,11 @@
         <v>7.3908315730863899E-2</v>
       </c>
       <c r="D43">
-        <f>ABS(B43-C43)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>IF(C43=0, NA(), ABS(B43-C43)/ABS(C43))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3061,11 +3065,11 @@
         <v>5.9865735741999798E-2</v>
       </c>
       <c r="D44">
-        <f>ABS(B44-C44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>IF(C44=0, NA(), ABS(B44-C44)/ABS(C44))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3080,11 +3084,11 @@
         <v>4.84912459510198E-2</v>
       </c>
       <c r="D45">
-        <f>ABS(B45-C45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>IF(C45=0, NA(), ABS(B45-C45)/ABS(C45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3099,11 +3103,11 @@
         <v>3.9277909220326E-2</v>
       </c>
       <c r="D46">
-        <f>ABS(B46-C46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f>IF(C46=0, NA(), ABS(B46-C46)/ABS(C46))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3118,11 +3122,11 @@
         <v>3.1815106468464097E-2</v>
       </c>
       <c r="D47">
-        <f>ABS(B47-C47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f>IF(C47=0, NA(), ABS(B47-C47)/ABS(C47))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3137,11 +3141,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D48">
-        <f>ABS(B48-C48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f>IF(C48=0, NA(), ABS(B48-C48)/ABS(C48))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3156,11 +3160,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D49">
-        <f>ABS(B49-C49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f>IF(C49=0, NA(), ABS(B49-C49)/ABS(C49))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3175,11 +3179,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D50">
-        <f>ABS(B50-C50)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f>IF(C50=0, NA(), ABS(B50-C50)/ABS(C50))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3194,11 +3198,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D51">
-        <f>ABS(B51-C51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f>IF(C51=0, NA(), ABS(B51-C51)/ABS(C51))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3213,11 +3217,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D52">
-        <f>ABS(B52-C52)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f>IF(C52=0, NA(), ABS(B52-C52)/ABS(C52))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3232,11 +3236,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D53">
-        <f>ABS(B53-C53)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f>IF(C53=0, NA(), ABS(B53-C53)/ABS(C53))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3251,11 +3255,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D54">
-        <f>ABS(B54-C54)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f>IF(C54=0, NA(), ABS(B54-C54)/ABS(C54))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3270,11 +3274,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D55">
-        <f>ABS(B55-C55)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f>IF(C55=0, NA(), ABS(B55-C55)/ABS(C55))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3289,11 +3293,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D56">
-        <f>ABS(B56-C56)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f>IF(C56=0, NA(), ABS(B56-C56)/ABS(C56))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3308,11 +3312,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D57">
-        <f>ABS(B57-C57)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f>IF(C57=0, NA(), ABS(B57-C57)/ABS(C57))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3327,11 +3331,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D58">
-        <f>ABS(B58-C58)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f>IF(C58=0, NA(), ABS(B58-C58)/ABS(C58))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3346,11 +3350,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D59">
-        <f>ABS(B59-C59)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>IF(C59=0, NA(), ABS(B59-C59)/ABS(C59))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3365,11 +3369,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D60">
-        <f>ABS(B60-C60)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>IF(C60=0, NA(), ABS(B60-C60)/ABS(C60))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3384,11 +3388,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D61">
-        <f>ABS(B61-C61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f>IF(C61=0, NA(), ABS(B61-C61)/ABS(C61))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3403,11 +3407,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D62">
-        <f>ABS(B62-C62)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f>IF(C62=0, NA(), ABS(B62-C62)/ABS(C62))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3422,11 +3426,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D63">
-        <f>ABS(B63-C63)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f>IF(C63=0, NA(), ABS(B63-C63)/ABS(C63))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3441,11 +3445,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D64">
-        <f>ABS(B64-C64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f>IF(C64=0, NA(), ABS(B64-C64)/ABS(C64))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3460,11 +3464,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D65">
-        <f>ABS(B65-C65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f>IF(C65=0, NA(), ABS(B65-C65)/ABS(C65))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3479,11 +3483,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D66">
-        <f>ABS(B66-C66)</f>
+        <f t="shared" ref="D66:D129" si="2">ABS(B66-C66)</f>
         <v>0</v>
       </c>
       <c r="E66">
-        <f>IF(C66=0, NA(), ABS(B66-C66)/ABS(C66))</f>
+        <f t="shared" ref="E66:E129" si="3">IF(C66=0, NA(), ABS(B66-C66)/ABS(C66))</f>
         <v>0</v>
       </c>
     </row>
@@ -3498,11 +3502,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D67">
-        <f>ABS(B67-C67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f>IF(C67=0, NA(), ABS(B67-C67)/ABS(C67))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3517,11 +3521,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D68">
-        <f>ABS(B68-C68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f>IF(C68=0, NA(), ABS(B68-C68)/ABS(C68))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3536,11 +3540,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D69">
-        <f>ABS(B69-C69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f>IF(C69=0, NA(), ABS(B69-C69)/ABS(C69))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3555,11 +3559,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D70">
-        <f>ABS(B70-C70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f>IF(C70=0, NA(), ABS(B70-C70)/ABS(C70))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3574,11 +3578,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D71">
-        <f>ABS(B71-C71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f>IF(C71=0, NA(), ABS(B71-C71)/ABS(C71))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3593,11 +3597,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D72">
-        <f>ABS(B72-C72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f>IF(C72=0, NA(), ABS(B72-C72)/ABS(C72))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3612,11 +3616,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D73">
-        <f>ABS(B73-C73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f>IF(C73=0, NA(), ABS(B73-C73)/ABS(C73))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3631,11 +3635,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D74">
-        <f>ABS(B74-C74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f>IF(C74=0, NA(), ABS(B74-C74)/ABS(C74))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3650,11 +3654,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D75">
-        <f>ABS(B75-C75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f>IF(C75=0, NA(), ABS(B75-C75)/ABS(C75))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3669,11 +3673,11 @@
         <v>6.2859865700286302E-2</v>
       </c>
       <c r="D76">
-        <f>ABS(B76-C76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f>IF(C76=0, NA(), ABS(B76-C76)/ABS(C76))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3688,11 +3692,11 @@
         <v>7.7604772469489297E-2</v>
       </c>
       <c r="D77">
-        <f>ABS(B77-C77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f>IF(C77=0, NA(), ABS(B77-C77)/ABS(C77))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3707,11 +3711,11 @@
         <v>0.118281927251164</v>
       </c>
       <c r="D78">
-        <f>ABS(B78-C78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f>IF(C78=0, NA(), ABS(B78-C78)/ABS(C78))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3726,11 +3730,11 @@
         <v>0.14602707068045001</v>
       </c>
       <c r="D79">
-        <f>ABS(B79-C79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f>IF(C79=0, NA(), ABS(B79-C79)/ABS(C79))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3745,11 +3749,11 @@
         <v>0.18028033417339501</v>
       </c>
       <c r="D80">
-        <f>ABS(B80-C80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f>IF(C80=0, NA(), ABS(B80-C80)/ABS(C80))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3764,11 +3768,11 @@
         <v>0.22256831379431499</v>
       </c>
       <c r="D81">
-        <f>ABS(B81-C81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f>IF(C81=0, NA(), ABS(B81-C81)/ABS(C81))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3783,11 +3787,11 @@
         <v>0.33922925437328999</v>
       </c>
       <c r="D82">
-        <f>ABS(B82-C82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f>IF(C82=0, NA(), ABS(B82-C82)/ABS(C82))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3802,11 +3806,11 @@
         <v>0.51703894890000002</v>
       </c>
       <c r="D83">
-        <f>ABS(B83-C83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f>IF(C83=0, NA(), ABS(B83-C83)/ABS(C83))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3821,11 +3825,11 @@
         <v>0.63831969</v>
       </c>
       <c r="D84">
-        <f>ABS(B84-C84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f>IF(C84=0, NA(), ABS(B84-C84)/ABS(C84))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3840,11 +3844,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="D85">
-        <f>ABS(B85-C85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f>IF(C85=0, NA(), ABS(B85-C85)/ABS(C85))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3859,11 +3863,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D86">
-        <f>ABS(B86-C86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f>IF(C86=0, NA(), ABS(B86-C86)/ABS(C86))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3878,11 +3882,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D87">
-        <f>ABS(B87-C87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f>IF(C87=0, NA(), ABS(B87-C87)/ABS(C87))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3897,11 +3901,11 @@
         <v>0.38742048899999998</v>
       </c>
       <c r="D88">
-        <f>ABS(B88-C88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f>IF(C88=0, NA(), ABS(B88-C88)/ABS(C88))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3916,11 +3920,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D89">
-        <f>ABS(B89-C89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f>IF(C89=0, NA(), ABS(B89-C89)/ABS(C89))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3935,11 +3939,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D90">
-        <f>ABS(B90-C90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f>IF(C90=0, NA(), ABS(B90-C90)/ABS(C90))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3954,11 +3958,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D91">
-        <f>ABS(B91-C91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f>IF(C91=0, NA(), ABS(B91-C91)/ABS(C91))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3973,11 +3977,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D92">
-        <f>ABS(B92-C92)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f>IF(C92=0, NA(), ABS(B92-C92)/ABS(C92))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3992,11 +3996,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D93">
-        <f>ABS(B93-C93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f>IF(C93=0, NA(), ABS(B93-C93)/ABS(C93))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4011,11 +4015,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D94">
-        <f>ABS(B94-C94)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f>IF(C94=0, NA(), ABS(B94-C94)/ABS(C94))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4030,11 +4034,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D95">
-        <f>ABS(B95-C95)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f>IF(C95=0, NA(), ABS(B95-C95)/ABS(C95))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4049,11 +4053,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D96">
-        <f>ABS(B96-C96)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f>IF(C96=0, NA(), ABS(B96-C96)/ABS(C96))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4068,11 +4072,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D97">
-        <f>ABS(B97-C97)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f>IF(C97=0, NA(), ABS(B97-C97)/ABS(C97))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4087,11 +4091,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D98">
-        <f>ABS(B98-C98)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f>IF(C98=0, NA(), ABS(B98-C98)/ABS(C98))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4106,11 +4110,11 @@
         <v>3.8152042447694601E-2</v>
       </c>
       <c r="D99">
-        <f>ABS(B99-C99)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f>IF(C99=0, NA(), ABS(B99-C99)/ABS(C99))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4125,11 +4129,11 @@
         <v>3.0903154382632601E-2</v>
       </c>
       <c r="D100">
-        <f>ABS(B100-C100)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f>IF(C100=0, NA(), ABS(B100-C100)/ABS(C100))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4144,11 +4148,11 @@
         <v>0.18028033417339501</v>
       </c>
       <c r="D101">
-        <f>ABS(B101-C101)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f>IF(C101=0, NA(), ABS(B101-C101)/ABS(C101))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4163,11 +4167,11 @@
         <v>0.25675904253967002</v>
       </c>
       <c r="D102">
-        <f>ABS(B102-C102)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f>IF(C102=0, NA(), ABS(B102-C102)/ABS(C102))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4182,11 +4186,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D103">
-        <f>ABS(B103-C103)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f>IF(C103=0, NA(), ABS(B103-C103)/ABS(C103))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4201,11 +4205,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D104">
-        <f>ABS(B104-C104)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f>IF(C104=0, NA(), ABS(B104-C104)/ABS(C104))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4220,11 +4224,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D105">
-        <f>ABS(B105-C105)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f>IF(C105=0, NA(), ABS(B105-C105)/ABS(C105))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4239,11 +4243,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D106">
-        <f>ABS(B106-C106)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f>IF(C106=0, NA(), ABS(B106-C106)/ABS(C106))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4258,11 +4262,11 @@
         <v>0.33922925437328999</v>
       </c>
       <c r="D107">
-        <f>ABS(B107-C107)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f>IF(C107=0, NA(), ABS(B107-C107)/ABS(C107))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4277,11 +4281,11 @@
         <v>0.27477569604236501</v>
       </c>
       <c r="D108">
-        <f>ABS(B108-C108)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f>IF(C108=0, NA(), ABS(B108-C108)/ABS(C108))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4296,11 +4300,11 @@
         <v>0.22256831379431499</v>
       </c>
       <c r="D109">
-        <f>ABS(B109-C109)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f>IF(C109=0, NA(), ABS(B109-C109)/ABS(C109))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4315,11 +4319,11 @@
         <v>0.28529982704183099</v>
       </c>
       <c r="D110">
-        <f>ABS(B110-C110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f>IF(C110=0, NA(), ABS(B110-C110)/ABS(C110))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4334,11 +4338,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D111">
-        <f>ABS(B111-C111)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f>IF(C111=0, NA(), ABS(B111-C111)/ABS(C111))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4353,11 +4357,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D112">
-        <f>ABS(B112-C112)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f>IF(C112=0, NA(), ABS(B112-C112)/ABS(C112))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4372,11 +4376,11 @@
         <v>0.27477569604236501</v>
       </c>
       <c r="D113">
-        <f>ABS(B113-C113)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f>IF(C113=0, NA(), ABS(B113-C113)/ABS(C113))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4391,11 +4395,11 @@
         <v>0.32053536346425199</v>
       </c>
       <c r="D114">
-        <f>ABS(B114-C114)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f>IF(C114=0, NA(), ABS(B114-C114)/ABS(C114))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4410,11 +4414,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D115">
-        <f>ABS(B115-C115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f>IF(C115=0, NA(), ABS(B115-C115)/ABS(C115))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4429,11 +4433,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D116">
-        <f>ABS(B116-C116)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f>IF(C116=0, NA(), ABS(B116-C116)/ABS(C116))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4448,11 +4452,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D117">
-        <f>ABS(B117-C117)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f>IF(C117=0, NA(), ABS(B117-C117)/ABS(C117))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4467,11 +4471,11 @@
         <v>0.21196697940276199</v>
       </c>
       <c r="D118">
-        <f>ABS(B118-C118)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f>IF(C118=0, NA(), ABS(B118-C118)/ABS(C118))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4486,11 +4490,11 @@
         <v>0.171693253316237</v>
       </c>
       <c r="D119">
-        <f>ABS(B119-C119)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f>IF(C119=0, NA(), ABS(B119-C119)/ABS(C119))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4505,11 +4509,11 @@
         <v>0.25958607198954098</v>
       </c>
       <c r="D120">
-        <f>ABS(B120-C120)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f>IF(C120=0, NA(), ABS(B120-C120)/ABS(C120))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4524,11 +4528,11 @@
         <v>0.18028033417339501</v>
       </c>
       <c r="D121">
-        <f>ABS(B121-C121)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f>IF(C121=0, NA(), ABS(B121-C121)/ABS(C121))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4543,11 +4547,11 @@
         <v>5.09164912172319E-2</v>
       </c>
       <c r="D122">
-        <f>ABS(B122-C122)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f>IF(C122=0, NA(), ABS(B122-C122)/ABS(C122))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4562,11 +4566,11 @@
         <v>6.2859865700286302E-2</v>
       </c>
       <c r="D123">
-        <f>ABS(B123-C123)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f>IF(C123=0, NA(), ABS(B123-C123)/ABS(C123))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4581,11 +4585,11 @@
         <v>7.7604772469489297E-2</v>
       </c>
       <c r="D124">
-        <f>ABS(B124-C124)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f>IF(C124=0, NA(), ABS(B124-C124)/ABS(C124))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4600,11 +4604,11 @@
         <v>9.5808361073443593E-2</v>
       </c>
       <c r="D125">
-        <f>ABS(B125-C125)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f>IF(C125=0, NA(), ABS(B125-C125)/ABS(C125))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4619,11 +4623,11 @@
         <v>0.118281927251164</v>
       </c>
       <c r="D126">
-        <f>ABS(B126-C126)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f>IF(C126=0, NA(), ABS(B126-C126)/ABS(C126))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4638,11 +4642,11 @@
         <v>0.14602707068045001</v>
       </c>
       <c r="D127">
-        <f>ABS(B127-C127)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f>IF(C127=0, NA(), ABS(B127-C127)/ABS(C127))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4657,11 +4661,11 @@
         <v>0.18028033417339501</v>
       </c>
       <c r="D128">
-        <f>ABS(B128-C128)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f>IF(C128=0, NA(), ABS(B128-C128)/ABS(C128))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4676,11 +4680,11 @@
         <v>0.14602707068045001</v>
       </c>
       <c r="D129">
-        <f>ABS(B129-C129)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f>IF(C129=0, NA(), ABS(B129-C129)/ABS(C129))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4695,11 +4699,11 @@
         <v>7.7604772469489297E-2</v>
       </c>
       <c r="D130">
-        <f>ABS(B130-C130)</f>
+        <f t="shared" ref="D130:D193" si="4">ABS(B130-C130)</f>
         <v>0</v>
       </c>
       <c r="E130">
-        <f>IF(C130=0, NA(), ABS(B130-C130)/ABS(C130))</f>
+        <f t="shared" ref="E130:E193" si="5">IF(C130=0, NA(), ABS(B130-C130)/ABS(C130))</f>
         <v>0</v>
       </c>
     </row>
@@ -4714,11 +4718,11 @@
         <v>6.2859865700286302E-2</v>
       </c>
       <c r="D131">
-        <f>ABS(B131-C131)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E131">
-        <f>IF(C131=0, NA(), ABS(B131-C131)/ABS(C131))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4733,11 +4737,11 @@
         <v>5.09164912172319E-2</v>
       </c>
       <c r="D132">
-        <f>ABS(B132-C132)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f>IF(C132=0, NA(), ABS(B132-C132)/ABS(C132))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4752,11 +4756,11 @@
         <v>4.1242357885957801E-2</v>
       </c>
       <c r="D133">
-        <f>ABS(B133-C133)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f>IF(C133=0, NA(), ABS(B133-C133)/ABS(C133))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4771,11 +4775,11 @@
         <v>3.3406309887625801E-2</v>
       </c>
       <c r="D134">
-        <f>ABS(B134-C134)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f>IF(C134=0, NA(), ABS(B134-C134)/ABS(C134))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4790,11 +4794,11 @@
         <v>0.118281927251164</v>
       </c>
       <c r="D135">
-        <f>ABS(B135-C135)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f>IF(C135=0, NA(), ABS(B135-C135)/ABS(C135))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4809,11 +4813,11 @@
         <v>9.5808361073443593E-2</v>
       </c>
       <c r="D136">
-        <f>ABS(B136-C136)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f>IF(C136=0, NA(), ABS(B136-C136)/ABS(C136))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4828,11 +4832,11 @@
         <v>8.7279635680877193E-3</v>
       </c>
       <c r="D137">
-        <f>ABS(B137-C137)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f>IF(C137=0, NA(), ABS(B137-C137)/ABS(C137))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4847,11 +4851,11 @@
         <v>1.07752636643058E-2</v>
       </c>
       <c r="D138">
-        <f>ABS(B138-C138)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f>IF(C138=0, NA(), ABS(B138-C138)/ABS(C138))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4866,11 +4870,11 @@
         <v>1.3302794647291101E-2</v>
       </c>
       <c r="D139">
-        <f>ABS(B139-C139)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f>IF(C139=0, NA(), ABS(B139-C139)/ABS(C139))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4885,11 +4889,11 @@
         <v>1.6423203268260599E-2</v>
       </c>
       <c r="D140">
-        <f>ABS(B140-C140)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f>IF(C140=0, NA(), ABS(B140-C140)/ABS(C140))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4904,11 +4908,11 @@
         <v>2.0275559590445202E-2</v>
       </c>
       <c r="D141">
-        <f>ABS(B141-C141)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f>IF(C141=0, NA(), ABS(B141-C141)/ABS(C141))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4923,11 +4927,11 @@
         <v>2.5031555049932399E-2</v>
       </c>
       <c r="D142">
-        <f>ABS(B142-C142)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f>IF(C142=0, NA(), ABS(B142-C142)/ABS(C142))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4942,11 +4946,11 @@
         <v>3.0903154382632601E-2</v>
       </c>
       <c r="D143">
-        <f>ABS(B143-C143)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f>IF(C143=0, NA(), ABS(B143-C143)/ABS(C143))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4961,11 +4965,11 @@
         <v>3.8152042447694601E-2</v>
       </c>
       <c r="D144">
-        <f>ABS(B144-C144)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f>IF(C144=0, NA(), ABS(B144-C144)/ABS(C144))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4980,11 +4984,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D145">
-        <f>ABS(B145-C145)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f>IF(C145=0, NA(), ABS(B145-C145)/ABS(C145))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4999,11 +5003,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D146">
-        <f>ABS(B146-C146)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f>IF(C146=0, NA(), ABS(B146-C146)/ABS(C146))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5018,11 +5022,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D147">
-        <f>ABS(B147-C147)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f>IF(C147=0, NA(), ABS(B147-C147)/ABS(C147))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5037,11 +5041,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D148">
-        <f>ABS(B148-C148)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f>IF(C148=0, NA(), ABS(B148-C148)/ABS(C148))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5056,11 +5060,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D149">
-        <f>ABS(B149-C149)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f>IF(C149=0, NA(), ABS(B149-C149)/ABS(C149))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5075,11 +5079,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D150">
-        <f>ABS(B150-C150)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f>IF(C150=0, NA(), ABS(B150-C150)/ABS(C150))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5094,11 +5098,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D151">
-        <f>ABS(B151-C151)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f>IF(C151=0, NA(), ABS(B151-C151)/ABS(C151))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5113,11 +5117,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D152">
-        <f>ABS(B152-C152)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f>IF(C152=0, NA(), ABS(B152-C152)/ABS(C152))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5132,11 +5136,11 @@
         <v>0.41880154860899999</v>
       </c>
       <c r="D153">
-        <f>ABS(B153-C153)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f>IF(C153=0, NA(), ABS(B153-C153)/ABS(C153))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5151,11 +5155,11 @@
         <v>3.8152042447694601E-2</v>
       </c>
       <c r="D154">
-        <f>ABS(B154-C154)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f>IF(C154=0, NA(), ABS(B154-C154)/ABS(C154))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5170,11 +5174,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D155">
-        <f>ABS(B155-C155)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f>IF(C155=0, NA(), ABS(B155-C155)/ABS(C155))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5189,11 +5193,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D156">
-        <f>ABS(B156-C156)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f>IF(C156=0, NA(), ABS(B156-C156)/ABS(C156))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5208,11 +5212,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D157">
-        <f>ABS(B157-C157)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f>IF(C157=0, NA(), ABS(B157-C157)/ABS(C157))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5227,11 +5231,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D158">
-        <f>ABS(B158-C158)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f>IF(C158=0, NA(), ABS(B158-C158)/ABS(C158))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5246,11 +5250,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D159">
-        <f>ABS(B159-C159)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f>IF(C159=0, NA(), ABS(B159-C159)/ABS(C159))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5265,11 +5269,11 @@
         <v>3.1815106468464097E-2</v>
       </c>
       <c r="D160">
-        <f>ABS(B160-C160)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f>IF(C160=0, NA(), ABS(B160-C160)/ABS(C160))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5284,11 +5288,11 @@
         <v>2.5770236239455901E-2</v>
       </c>
       <c r="D161">
-        <f>ABS(B161-C161)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f>IF(C161=0, NA(), ABS(B161-C161)/ABS(C161))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5303,11 +5307,11 @@
         <v>2.0873891353959301E-2</v>
       </c>
       <c r="D162">
-        <f>ABS(B162-C162)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f>IF(C162=0, NA(), ABS(B162-C162)/ABS(C162))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5322,11 +5326,11 @@
         <v>1.6907851996707E-2</v>
       </c>
       <c r="D163">
-        <f>ABS(B163-C163)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f>IF(C163=0, NA(), ABS(B163-C163)/ABS(C163))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5341,11 +5345,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D164">
-        <f>ABS(B164-C164)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f>IF(C164=0, NA(), ABS(B164-C164)/ABS(C164))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5360,11 +5364,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D165">
-        <f>ABS(B165-C165)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f>IF(C165=0, NA(), ABS(B165-C165)/ABS(C165))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5379,11 +5383,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D166">
-        <f>ABS(B166-C166)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f>IF(C166=0, NA(), ABS(B166-C166)/ABS(C166))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5398,11 +5402,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D167">
-        <f>ABS(B167-C167)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f>IF(C167=0, NA(), ABS(B167-C167)/ABS(C167))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5417,11 +5421,11 @@
         <v>3.8152042447694601E-2</v>
       </c>
       <c r="D168">
-        <f>ABS(B168-C168)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f>IF(C168=0, NA(), ABS(B168-C168)/ABS(C168))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5436,11 +5440,11 @@
         <v>3.0903154382632601E-2</v>
       </c>
       <c r="D169">
-        <f>ABS(B169-C169)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f>IF(C169=0, NA(), ABS(B169-C169)/ABS(C169))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5455,11 +5459,11 @@
         <v>0.22256831379431499</v>
       </c>
       <c r="D170">
-        <f>ABS(B170-C170)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f>IF(C170=0, NA(), ABS(B170-C170)/ABS(C170))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5474,11 +5478,11 @@
         <v>0.385784061421235</v>
       </c>
       <c r="D171">
-        <f>ABS(B171-C171)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f>IF(C171=0, NA(), ABS(B171-C171)/ABS(C171))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5493,11 +5497,11 @@
         <v>0.476276619038561</v>
       </c>
       <c r="D172">
-        <f>ABS(B172-C172)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f>IF(C172=0, NA(), ABS(B172-C172)/ABS(C172))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5512,11 +5516,11 @@
         <v>0.48535250410515002</v>
       </c>
       <c r="D173">
-        <f>ABS(B173-C173)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f>IF(C173=0, NA(), ABS(B173-C173)/ABS(C173))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5531,11 +5535,11 @@
         <v>0.31437312071410201</v>
       </c>
       <c r="D174">
-        <f>ABS(B174-C174)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f>IF(C174=0, NA(), ABS(B174-C174)/ABS(C174))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5550,11 +5554,11 @@
         <v>0.38811496384457</v>
       </c>
       <c r="D175">
-        <f>ABS(B175-C175)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f>IF(C175=0, NA(), ABS(B175-C175)/ABS(C175))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5569,11 +5573,11 @@
         <v>0.47915427635132102</v>
       </c>
       <c r="D176">
-        <f>ABS(B176-C176)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f>IF(C176=0, NA(), ABS(B176-C176)/ABS(C176))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5588,11 +5592,11 @@
         <v>0.41790254362590101</v>
       </c>
       <c r="D177">
-        <f>ABS(B177-C177)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f>IF(C177=0, NA(), ABS(B177-C177)/ABS(C177))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5607,11 +5611,11 @@
         <v>0.44465184686534798</v>
       </c>
       <c r="D178">
-        <f>ABS(B178-C178)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f>IF(C178=0, NA(), ABS(B178-C178)/ABS(C178))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5626,11 +5630,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D179">
-        <f>ABS(B179-C179)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f>IF(C179=0, NA(), ABS(B179-C179)/ABS(C179))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5645,11 +5649,11 @@
         <v>0.31330517397093699</v>
       </c>
       <c r="D180">
-        <f>ABS(B180-C180)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f>IF(C180=0, NA(), ABS(B180-C180)/ABS(C180))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5664,11 +5668,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D181">
-        <f>ABS(B181-C181)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f>IF(C181=0, NA(), ABS(B181-C181)/ABS(C181))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5683,11 +5687,11 @@
         <v>7.7604772469489297E-2</v>
       </c>
       <c r="D182">
-        <f>ABS(B182-C182)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f>IF(C182=0, NA(), ABS(B182-C182)/ABS(C182))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5702,11 +5706,11 @@
         <v>0.118281927251164</v>
       </c>
       <c r="D183">
-        <f>ABS(B183-C183)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f>IF(C183=0, NA(), ABS(B183-C183)/ABS(C183))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5721,11 +5725,11 @@
         <v>0.14602707068045001</v>
       </c>
       <c r="D184">
-        <f>ABS(B184-C184)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f>IF(C184=0, NA(), ABS(B184-C184)/ABS(C184))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5740,11 +5744,11 @@
         <v>0.21985367032779701</v>
       </c>
       <c r="D185">
-        <f>ABS(B185-C185)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f>IF(C185=0, NA(), ABS(B185-C185)/ABS(C185))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5759,11 +5763,11 @@
         <v>0.22256831379431499</v>
       </c>
       <c r="D186">
-        <f>ABS(B186-C186)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f>IF(C186=0, NA(), ABS(B186-C186)/ABS(C186))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5778,11 +5782,11 @@
         <v>0.33922925437328999</v>
       </c>
       <c r="D187">
-        <f>ABS(B187-C187)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f>IF(C187=0, NA(), ABS(B187-C187)/ABS(C187))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5797,11 +5801,11 @@
         <v>0.413579186622412</v>
       </c>
       <c r="D188">
-        <f>ABS(B188-C188)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f>IF(C188=0, NA(), ABS(B188-C188)/ABS(C188))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5816,11 +5820,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D189">
-        <f>ABS(B189-C189)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f>IF(C189=0, NA(), ABS(B189-C189)/ABS(C189))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5835,11 +5839,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D190">
-        <f>ABS(B190-C190)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f>IF(C190=0, NA(), ABS(B190-C190)/ABS(C190))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5854,11 +5858,11 @@
         <v>0.38742048899999998</v>
       </c>
       <c r="D191">
-        <f>ABS(B191-C191)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f>IF(C191=0, NA(), ABS(B191-C191)/ABS(C191))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5873,11 +5877,11 @@
         <v>0.46952008870453898</v>
       </c>
       <c r="D192">
-        <f>ABS(B192-C192)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f>IF(C192=0, NA(), ABS(B192-C192)/ABS(C192))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5892,11 +5896,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D193">
-        <f>ABS(B193-C193)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f>IF(C193=0, NA(), ABS(B193-C193)/ABS(C193))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5911,11 +5915,11 @@
         <v>0.38742048899999998</v>
       </c>
       <c r="D194">
-        <f>ABS(B194-C194)</f>
+        <f t="shared" ref="D194:D257" si="6">ABS(B194-C194)</f>
         <v>0</v>
       </c>
       <c r="E194">
-        <f>IF(C194=0, NA(), ABS(B194-C194)/ABS(C194))</f>
+        <f t="shared" ref="E194:E257" si="7">IF(C194=0, NA(), ABS(B194-C194)/ABS(C194))</f>
         <v>0</v>
       </c>
     </row>
@@ -5930,11 +5934,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D195">
-        <f>ABS(B195-C195)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E195">
-        <f>IF(C195=0, NA(), ABS(B195-C195)/ABS(C195))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5949,11 +5953,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D196">
-        <f>ABS(B196-C196)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f>IF(C196=0, NA(), ABS(B196-C196)/ABS(C196))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5968,11 +5972,11 @@
         <v>0.38742048899999998</v>
       </c>
       <c r="D197">
-        <f>ABS(B197-C197)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f>IF(C197=0, NA(), ABS(B197-C197)/ABS(C197))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5987,11 +5991,11 @@
         <v>0.48213255760631601</v>
       </c>
       <c r="D198">
-        <f>ABS(B198-C198)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f>IF(C198=0, NA(), ABS(B198-C198)/ABS(C198))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6006,11 +6010,11 @@
         <v>0.31556272931031498</v>
       </c>
       <c r="D199">
-        <f>ABS(B199-C199)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f>IF(C199=0, NA(), ABS(B199-C199)/ABS(C199))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6025,11 +6029,11 @@
         <v>3.1815106468464097E-2</v>
       </c>
       <c r="D200">
-        <f>ABS(B200-C200)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f>IF(C200=0, NA(), ABS(B200-C200)/ABS(C200))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6044,11 +6048,11 @@
         <v>3.9277909220326E-2</v>
       </c>
       <c r="D201">
-        <f>ABS(B201-C201)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f>IF(C201=0, NA(), ABS(B201-C201)/ABS(C201))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6063,11 +6067,11 @@
         <v>4.84912459510198E-2</v>
       </c>
       <c r="D202">
-        <f>ABS(B202-C202)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f>IF(C202=0, NA(), ABS(B202-C202)/ABS(C202))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6082,11 +6086,11 @@
         <v>5.9865735741999798E-2</v>
       </c>
       <c r="D203">
-        <f>ABS(B203-C203)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f>IF(C203=0, NA(), ABS(B203-C203)/ABS(C203))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6101,11 +6105,11 @@
         <v>7.3908315730863899E-2</v>
       </c>
       <c r="D204">
-        <f>ABS(B204-C204)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f>IF(C204=0, NA(), ABS(B204-C204)/ABS(C204))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6120,11 +6124,11 @@
         <v>9.1244834235634495E-2</v>
       </c>
       <c r="D205">
-        <f>ABS(B205-C205)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f>IF(C205=0, NA(), ABS(B205-C205)/ABS(C205))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6139,11 +6143,11 @@
         <v>0.112647943500783</v>
       </c>
       <c r="D206">
-        <f>ABS(B206-C206)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f>IF(C206=0, NA(), ABS(B206-C206)/ABS(C206))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6158,11 +6162,11 @@
         <v>0.13907153518615201</v>
       </c>
       <c r="D207">
-        <f>ABS(B207-C207)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f>IF(C207=0, NA(), ABS(B207-C207)/ABS(C207))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6177,11 +6181,11 @@
         <v>0.31248508975119998</v>
       </c>
       <c r="D208">
-        <f>ABS(B208-C208)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f>IF(C208=0, NA(), ABS(B208-C208)/ABS(C208))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6196,11 +6200,11 @@
         <v>0.385784061421235</v>
       </c>
       <c r="D209">
-        <f>ABS(B209-C209)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f>IF(C209=0, NA(), ABS(B209-C209)/ABS(C209))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6215,11 +6219,11 @@
         <v>0.33836316564771801</v>
       </c>
       <c r="D210">
-        <f>ABS(B210-C210)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f>IF(C210=0, NA(), ABS(B210-C210)/ABS(C210))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6234,11 +6238,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D211">
-        <f>ABS(B211-C211)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f>IF(C211=0, NA(), ABS(B211-C211)/ABS(C211))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6253,11 +6257,11 @@
         <v>0.27735564724872203</v>
       </c>
       <c r="D212">
-        <f>ABS(B212-C212)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f>IF(C212=0, NA(), ABS(B212-C212)/ABS(C212))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6272,11 +6276,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D213">
-        <f>ABS(B213-C213)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f>IF(C213=0, NA(), ABS(B213-C213)/ABS(C213))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6291,11 +6295,11 @@
         <v>0.38742048899999998</v>
       </c>
       <c r="D214">
-        <f>ABS(B214-C214)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f>IF(C214=0, NA(), ABS(B214-C214)/ABS(C214))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6310,11 +6314,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D215">
-        <f>ABS(B215-C215)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f>IF(C215=0, NA(), ABS(B215-C215)/ABS(C215))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6329,11 +6333,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D216">
-        <f>ABS(B216-C216)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f>IF(C216=0, NA(), ABS(B216-C216)/ABS(C216))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6348,11 +6352,11 @@
         <v>0.30805213019904798</v>
       </c>
       <c r="D217">
-        <f>ABS(B217-C217)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f>IF(C217=0, NA(), ABS(B217-C217)/ABS(C217))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6367,11 +6371,11 @@
         <v>0.20337989854560301</v>
       </c>
       <c r="D218">
-        <f>ABS(B218-C218)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f>IF(C218=0, NA(), ABS(B218-C218)/ABS(C218))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6386,11 +6390,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D219">
-        <f>ABS(B219-C219)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f>IF(C219=0, NA(), ABS(B219-C219)/ABS(C219))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6405,11 +6409,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D220">
-        <f>ABS(B220-C220)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f>IF(C220=0, NA(), ABS(B220-C220)/ABS(C220))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6424,11 +6428,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D221">
-        <f>ABS(B221-C221)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f>IF(C221=0, NA(), ABS(B221-C221)/ABS(C221))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6443,11 +6447,11 @@
         <v>0.109242759335445</v>
       </c>
       <c r="D222">
-        <f>ABS(B222-C222)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f>IF(C222=0, NA(), ABS(B222-C222)/ABS(C222))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6462,11 +6466,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D223">
-        <f>ABS(B223-C223)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f>IF(C223=0, NA(), ABS(B223-C223)/ABS(C223))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6481,11 +6485,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D224">
-        <f>ABS(B224-C224)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f>IF(C224=0, NA(), ABS(B224-C224)/ABS(C224))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6500,11 +6504,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D225">
-        <f>ABS(B225-C225)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f>IF(C225=0, NA(), ABS(B225-C225)/ABS(C225))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6519,11 +6523,11 @@
         <v>3.8152042447694601E-2</v>
       </c>
       <c r="D226">
-        <f>ABS(B226-C226)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f>IF(C226=0, NA(), ABS(B226-C226)/ABS(C226))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6538,11 +6542,11 @@
         <v>3.0903154382632601E-2</v>
       </c>
       <c r="D227">
-        <f>ABS(B227-C227)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f>IF(C227=0, NA(), ABS(B227-C227)/ABS(C227))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6557,11 +6561,11 @@
         <v>2.5031555049932399E-2</v>
       </c>
       <c r="D228">
-        <f>ABS(B228-C228)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f>IF(C228=0, NA(), ABS(B228-C228)/ABS(C228))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6576,11 +6580,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D229">
-        <f>ABS(B229-C229)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f>IF(C229=0, NA(), ABS(B229-C229)/ABS(C229))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6595,11 +6599,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D230">
-        <f>ABS(B230-C230)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f>IF(C230=0, NA(), ABS(B230-C230)/ABS(C230))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6614,11 +6618,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D231">
-        <f>ABS(B231-C231)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f>IF(C231=0, NA(), ABS(B231-C231)/ABS(C231))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6633,11 +6637,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D232">
-        <f>ABS(B232-C232)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f>IF(C232=0, NA(), ABS(B232-C232)/ABS(C232))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6652,11 +6656,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D233">
-        <f>ABS(B233-C233)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f>IF(C233=0, NA(), ABS(B233-C233)/ABS(C233))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6671,11 +6675,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D234">
-        <f>ABS(B234-C234)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f>IF(C234=0, NA(), ABS(B234-C234)/ABS(C234))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6690,11 +6694,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D235">
-        <f>ABS(B235-C235)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f>IF(C235=0, NA(), ABS(B235-C235)/ABS(C235))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6709,11 +6713,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D236">
-        <f>ABS(B236-C236)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f>IF(C236=0, NA(), ABS(B236-C236)/ABS(C236))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6728,11 +6732,11 @@
         <v>0.52003041724233001</v>
       </c>
       <c r="D237">
-        <f>ABS(B237-C237)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f>IF(C237=0, NA(), ABS(B237-C237)/ABS(C237))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6747,11 +6751,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D238">
-        <f>ABS(B238-C238)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f>IF(C238=0, NA(), ABS(B238-C238)/ABS(C238))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6766,11 +6770,11 @@
         <v>0.59048999999999996</v>
       </c>
       <c r="D239">
-        <f>ABS(B239-C239)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f>IF(C239=0, NA(), ABS(B239-C239)/ABS(C239))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6785,11 +6789,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="D240">
-        <f>ABS(B240-C240)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f>IF(C240=0, NA(), ABS(B240-C240)/ABS(C240))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6804,11 +6808,11 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="D241">
-        <f>ABS(B241-C241)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f>IF(C241=0, NA(), ABS(B241-C241)/ABS(C241))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6823,11 +6827,11 @@
         <v>0.40954942504949099</v>
       </c>
       <c r="D242">
-        <f>ABS(B242-C242)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f>IF(C242=0, NA(), ABS(B242-C242)/ABS(C242))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6842,11 +6846,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D243">
-        <f>ABS(B243-C243)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f>IF(C243=0, NA(), ABS(B243-C243)/ABS(C243))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6861,11 +6865,11 @@
         <v>0.34119195675269298</v>
       </c>
       <c r="D244">
-        <f>ABS(B244-C244)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f>IF(C244=0, NA(), ABS(B244-C244)/ABS(C244))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6880,11 +6884,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D245">
-        <f>ABS(B245-C245)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f>IF(C245=0, NA(), ABS(B245-C245)/ABS(C245))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6899,11 +6903,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D246">
-        <f>ABS(B246-C246)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f>IF(C246=0, NA(), ABS(B246-C246)/ABS(C246))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6918,11 +6922,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D247">
-        <f>ABS(B247-C247)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f>IF(C247=0, NA(), ABS(B247-C247)/ABS(C247))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6937,11 +6941,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D248">
-        <f>ABS(B248-C248)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f>IF(C248=0, NA(), ABS(B248-C248)/ABS(C248))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6956,11 +6960,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D249">
-        <f>ABS(B249-C249)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f>IF(C249=0, NA(), ABS(B249-C249)/ABS(C249))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6975,11 +6979,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D250">
-        <f>ABS(B250-C250)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f>IF(C250=0, NA(), ABS(B250-C250)/ABS(C250))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6994,11 +6998,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D251">
-        <f>ABS(B251-C251)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f>IF(C251=0, NA(), ABS(B251-C251)/ABS(C251))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7013,11 +7017,11 @@
         <v>3.0903154382632601E-2</v>
       </c>
       <c r="D252">
-        <f>ABS(B252-C252)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f>IF(C252=0, NA(), ABS(B252-C252)/ABS(C252))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7032,11 +7036,11 @@
         <v>3.8152042447694601E-2</v>
       </c>
       <c r="D253">
-        <f>ABS(B253-C253)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f>IF(C253=0, NA(), ABS(B253-C253)/ABS(C253))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7051,11 +7055,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D254">
-        <f>ABS(B254-C254)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f>IF(C254=0, NA(), ABS(B254-C254)/ABS(C254))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7070,11 +7074,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D255">
-        <f>ABS(B255-C255)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f>IF(C255=0, NA(), ABS(B255-C255)/ABS(C255))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7089,11 +7093,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D256">
-        <f>ABS(B256-C256)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f>IF(C256=0, NA(), ABS(B256-C256)/ABS(C256))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7108,11 +7112,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D257">
-        <f>ABS(B257-C257)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f>IF(C257=0, NA(), ABS(B257-C257)/ABS(C257))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7127,11 +7131,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D258">
-        <f>ABS(B258-C258)</f>
+        <f t="shared" ref="D258:D307" si="8">ABS(B258-C258)</f>
         <v>0</v>
       </c>
       <c r="E258">
-        <f>IF(C258=0, NA(), ABS(B258-C258)/ABS(C258))</f>
+        <f t="shared" ref="E258:E307" si="9">IF(C258=0, NA(), ABS(B258-C258)/ABS(C258))</f>
         <v>0</v>
       </c>
     </row>
@@ -7146,11 +7150,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D259">
-        <f>ABS(B259-C259)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E259">
-        <f>IF(C259=0, NA(), ABS(B259-C259)/ABS(C259))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7165,11 +7169,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D260">
-        <f>ABS(B260-C260)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f>IF(C260=0, NA(), ABS(B260-C260)/ABS(C260))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7184,11 +7188,11 @@
         <v>0.265346123396828</v>
       </c>
       <c r="D261">
-        <f>ABS(B261-C261)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f>IF(C261=0, NA(), ABS(B261-C261)/ABS(C261))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7203,11 +7207,11 @@
         <v>0.22256831379431499</v>
       </c>
       <c r="D262">
-        <f>ABS(B262-C262)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f>IF(C262=0, NA(), ABS(B262-C262)/ABS(C262))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7222,11 +7226,11 @@
         <v>0.25634471950083199</v>
       </c>
       <c r="D263">
-        <f>ABS(B263-C263)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f>IF(C263=0, NA(), ABS(B263-C263)/ABS(C263))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7241,11 +7245,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D264">
-        <f>ABS(B264-C264)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f>IF(C264=0, NA(), ABS(B264-C264)/ABS(C264))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7260,11 +7264,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D265">
-        <f>ABS(B265-C265)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f>IF(C265=0, NA(), ABS(B265-C265)/ABS(C265))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7279,11 +7283,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D266">
-        <f>ABS(B266-C266)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f>IF(C266=0, NA(), ABS(B266-C266)/ABS(C266))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7298,11 +7302,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D267">
-        <f>ABS(B267-C267)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f>IF(C267=0, NA(), ABS(B267-C267)/ABS(C267))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7317,11 +7321,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D268">
-        <f>ABS(B268-C268)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f>IF(C268=0, NA(), ABS(B268-C268)/ABS(C268))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7336,11 +7340,11 @@
         <v>0.21669132195444199</v>
       </c>
       <c r="D269">
-        <f>ABS(B269-C269)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f>IF(C269=0, NA(), ABS(B269-C269)/ABS(C269))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7355,11 +7359,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D270">
-        <f>ABS(B270-C270)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f>IF(C270=0, NA(), ABS(B270-C270)/ABS(C270))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7374,11 +7378,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D271">
-        <f>ABS(B271-C271)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f>IF(C271=0, NA(), ABS(B271-C271)/ABS(C271))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7393,11 +7397,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D272">
-        <f>ABS(B272-C272)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f>IF(C272=0, NA(), ABS(B272-C272)/ABS(C272))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7412,11 +7416,11 @@
         <v>8.8629381196524998E-2</v>
       </c>
       <c r="D273">
-        <f>ABS(B273-C273)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f>IF(C273=0, NA(), ABS(B273-C273)/ABS(C273))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7431,11 +7435,11 @@
         <v>7.1789798769185301E-2</v>
       </c>
       <c r="D274">
-        <f>ABS(B274-C274)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f>IF(C274=0, NA(), ABS(B274-C274)/ABS(C274))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7450,11 +7454,11 @@
         <v>5.8149737003040103E-2</v>
       </c>
       <c r="D275">
-        <f>ABS(B275-C275)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f>IF(C275=0, NA(), ABS(B275-C275)/ABS(C275))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7469,11 +7473,11 @@
         <v>4.7101286972462401E-2</v>
       </c>
       <c r="D276">
-        <f>ABS(B276-C276)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f>IF(C276=0, NA(), ABS(B276-C276)/ABS(C276))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7488,11 +7492,11 @@
         <v>3.8152042447694601E-2</v>
       </c>
       <c r="D277">
-        <f>ABS(B277-C277)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f>IF(C277=0, NA(), ABS(B277-C277)/ABS(C277))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7507,11 +7511,11 @@
         <v>3.0903154382632601E-2</v>
       </c>
       <c r="D278">
-        <f>ABS(B278-C278)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f>IF(C278=0, NA(), ABS(B278-C278)/ABS(C278))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7526,11 +7530,11 @@
         <v>2.5031555049932399E-2</v>
       </c>
       <c r="D279">
-        <f>ABS(B279-C279)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f>IF(C279=0, NA(), ABS(B279-C279)/ABS(C279))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7545,11 +7549,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D280">
-        <f>ABS(B280-C280)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f>IF(C280=0, NA(), ABS(B280-C280)/ABS(C280))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7564,11 +7568,11 @@
         <v>0.109418989131512</v>
       </c>
       <c r="D281">
-        <f>ABS(B281-C281)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f>IF(C281=0, NA(), ABS(B281-C281)/ABS(C281))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7583,11 +7587,11 @@
         <v>0.13508517176729901</v>
       </c>
       <c r="D282">
-        <f>ABS(B282-C282)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f>IF(C282=0, NA(), ABS(B282-C282)/ABS(C282))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7602,11 +7606,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D283">
-        <f>ABS(B283-C283)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f>IF(C283=0, NA(), ABS(B283-C283)/ABS(C283))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7621,11 +7625,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D284">
-        <f>ABS(B284-C284)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f>IF(C284=0, NA(), ABS(B284-C284)/ABS(C284))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7640,11 +7644,11 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D285">
-        <f>ABS(B285-C285)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f>IF(C285=0, NA(), ABS(B285-C285)/ABS(C285))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7659,11 +7663,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D286">
-        <f>ABS(B286-C286)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f>IF(C286=0, NA(), ABS(B286-C286)/ABS(C286))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7678,11 +7682,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D287">
-        <f>ABS(B287-C287)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f>IF(C287=0, NA(), ABS(B287-C287)/ABS(C287))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7697,11 +7701,11 @@
         <v>0.46952008870453898</v>
       </c>
       <c r="D288">
-        <f>ABS(B288-C288)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f>IF(C288=0, NA(), ABS(B288-C288)/ABS(C288))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7716,11 +7720,11 @@
         <v>0.38742048899999998</v>
       </c>
       <c r="D289">
-        <f>ABS(B289-C289)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f>IF(C289=0, NA(), ABS(B289-C289)/ABS(C289))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7735,11 +7739,11 @@
         <v>0.47829690000000002</v>
       </c>
       <c r="D290">
-        <f>ABS(B290-C290)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f>IF(C290=0, NA(), ABS(B290-C290)/ABS(C290))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7754,11 +7758,11 @@
         <v>0.38742048899999998</v>
       </c>
       <c r="D291">
-        <f>ABS(B291-C291)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f>IF(C291=0, NA(), ABS(B291-C291)/ABS(C291))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7773,11 +7777,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D292">
-        <f>ABS(B292-C292)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f>IF(C292=0, NA(), ABS(B292-C292)/ABS(C292))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7792,11 +7796,11 @@
         <v>0.23583350533167299</v>
       </c>
       <c r="D293">
-        <f>ABS(B293-C293)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f>IF(C293=0, NA(), ABS(B293-C293)/ABS(C293))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7811,11 +7815,11 @@
         <v>0.16677181699666499</v>
       </c>
       <c r="D294">
-        <f>ABS(B294-C294)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f>IF(C294=0, NA(), ABS(B294-C294)/ABS(C294))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7830,11 +7834,11 @@
         <v>0.29020560959872799</v>
       </c>
       <c r="D295">
-        <f>ABS(B295-C295)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f>IF(C295=0, NA(), ABS(B295-C295)/ABS(C295))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7849,11 +7853,11 @@
         <v>0.26168762889229902</v>
       </c>
       <c r="D296">
-        <f>ABS(B296-C296)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f>IF(C296=0, NA(), ABS(B296-C296)/ABS(C296))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7868,11 +7872,11 @@
         <v>0.20589113209464899</v>
       </c>
       <c r="D297">
-        <f>ABS(B297-C297)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f>IF(C297=0, NA(), ABS(B297-C297)/ABS(C297))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7887,11 +7891,11 @@
         <v>0.38497363390877298</v>
       </c>
       <c r="D298">
-        <f>ABS(B298-C298)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f>IF(C298=0, NA(), ABS(B298-C298)/ABS(C298))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7906,11 +7910,11 @@
         <v>0.33922925437328999</v>
       </c>
       <c r="D299">
-        <f>ABS(B299-C299)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f>IF(C299=0, NA(), ABS(B299-C299)/ABS(C299))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7925,11 +7929,11 @@
         <v>0.171693253316237</v>
       </c>
       <c r="D300">
-        <f>ABS(B300-C300)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f>IF(C300=0, NA(), ABS(B300-C300)/ABS(C300))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7944,11 +7948,11 @@
         <v>0.13907153518615201</v>
       </c>
       <c r="D301">
-        <f>ABS(B301-C301)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f>IF(C301=0, NA(), ABS(B301-C301)/ABS(C301))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7963,11 +7967,11 @@
         <v>0.197840316519135</v>
       </c>
       <c r="D302">
-        <f>ABS(B302-C302)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f>IF(C302=0, NA(), ABS(B302-C302)/ABS(C302))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7982,11 +7986,11 @@
         <v>0.31381059609</v>
       </c>
       <c r="D303">
-        <f>ABS(B303-C303)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f>IF(C303=0, NA(), ABS(B303-C303)/ABS(C303))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8001,11 +8005,11 @@
         <v>0.306639465659023</v>
       </c>
       <c r="D304">
-        <f>ABS(B304-C304)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f>IF(C304=0, NA(), ABS(B304-C304)/ABS(C304))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8020,11 +8024,11 @@
         <v>0.32363166660335502</v>
       </c>
       <c r="D305">
-        <f>ABS(B305-C305)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f>IF(C305=0, NA(), ABS(B305-C305)/ABS(C305))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8039,11 +8043,11 @@
         <v>0.42817284206063599</v>
       </c>
       <c r="D306">
-        <f>ABS(B306-C306)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f>IF(C306=0, NA(), ABS(B306-C306)/ABS(C306))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8058,14 +8062,736 @@
         <v>0.25418658283290002</v>
       </c>
       <c r="D307">
-        <f>ABS(B307-C307)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f>IF(C307=0, NA(), ABS(B307-C307)/ABS(C307))</f>
-        <v>0</v>
-      </c>
-    </row>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="324" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="326" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="327" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="328" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="329" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="330" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="331" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="332" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="333" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="335" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="336" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="394" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="395" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="396" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="397" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="398" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="399" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="400" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="401" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="402" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="403" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="404" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="405" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="406" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="407" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="408" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="409" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="410" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="411" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="412" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="413" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="414" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="415" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="416" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="417" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="418" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="419" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="420" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="421" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="422" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="423" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="425" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="426" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="427" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="428" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="429" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="430" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="431" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="432" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="433" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="434" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="435" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="436" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="437" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="438" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="439" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="440" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="441" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="442" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="443" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="444" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="445" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="446" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="447" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="448" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="449" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="450" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="452" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="453" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="454" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="455" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="456" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="457" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="458" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="459" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="460" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="461" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="462" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="463" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="464" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="465" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="466" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="467" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="468" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="469" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="470" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="471" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="472" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="473" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="474" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="475" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="476" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="477" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="478" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="479" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="480" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="481" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="482" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="483" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="484" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="485" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="486" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="487" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="488" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="489" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="490" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="491" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="492" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="493" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="494" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="495" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="496" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="497" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="498" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="499" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="500" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="501" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="502" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="503" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="504" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="505" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="506" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="507" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="508" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="509" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="510" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="511" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="512" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="513" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="514" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="515" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="516" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="517" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="518" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="519" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="520" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="521" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="522" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="523" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="524" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="525" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="526" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="527" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="528" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="529" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="530" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="531" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="532" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="533" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="534" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="535" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="536" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="537" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="538" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="539" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="540" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="541" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="542" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="543" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="544" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="545" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="546" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="547" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="548" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="549" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="550" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="551" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="552" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="553" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="554" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="555" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="556" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="557" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="558" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="559" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="560" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="561" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="562" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="563" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="564" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="565" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="566" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="567" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="568" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="569" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="570" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="571" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="572" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="573" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="574" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="575" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="576" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="577" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="578" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="579" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="580" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="581" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="582" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="583" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="584" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="585" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="586" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="587" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="588" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="589" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="590" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="591" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="592" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="593" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="594" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="595" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="596" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="597" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="598" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="599" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="600" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="601" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="602" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="603" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="604" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="605" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="606" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="607" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="608" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="609" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="610" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="611" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="612" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="613" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="614" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="615" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="616" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="617" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="618" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="619" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="620" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="621" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="622" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="623" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="624" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="625" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="626" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="627" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="628" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="629" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="630" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="631" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="632" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="633" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="634" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="635" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="636" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="637" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="638" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="639" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="640" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="641" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="642" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="643" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="644" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="645" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="646" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="647" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="648" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="649" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="650" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="651" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="652" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="653" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="654" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="655" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="656" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="657" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="658" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="659" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="660" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="661" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="662" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="663" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="664" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="665" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="666" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="667" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="668" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="669" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="670" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="671" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="672" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="673" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="674" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="675" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="676" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="677" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="678" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="679" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="680" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="681" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="682" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="683" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="684" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="685" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="686" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="687" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="688" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="689" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="690" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="691" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="692" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="693" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="694" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="695" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="696" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="697" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="698" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="699" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="700" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="701" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="702" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="703" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="704" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="705" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="706" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="707" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="708" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="709" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="710" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="711" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="712" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="713" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="714" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="715" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="716" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="717" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="718" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="719" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="720" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="721" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="722" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="723" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="724" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="725" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="726" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="727" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="728" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="729" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="730" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="731" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="732" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="733" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="734" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="735" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="736" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="737" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="738" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="739" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="740" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="741" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="742" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="743" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="744" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="745" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="746" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="747" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="748" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="749" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="750" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="751" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="752" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="753" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="754" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="755" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="756" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="757" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="758" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="759" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="760" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="761" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="762" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="763" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="764" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="765" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="766" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="767" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="768" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="769" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="770" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="771" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="772" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="773" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="774" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="775" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="776" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="777" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="778" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="779" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="780" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="781" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="782" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="783" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="784" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="785" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="786" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="787" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="788" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="789" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="790" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="791" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="792" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="793" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="794" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="795" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="796" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="797" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="798" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="799" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="800" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="801" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="802" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="803" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="804" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="805" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="806" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="807" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="808" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="809" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="810" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="811" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="812" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="813" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="814" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="815" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="816" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="817" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="818" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="819" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="820" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="821" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="822" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="823" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="824" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="825" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="826" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="827" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="828" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="829" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="830" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="831" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="832" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="833" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="834" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="835" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="836" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="837" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="838" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="839" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="840" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="841" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="842" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="843" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="844" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="845" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="846" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="847" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="848" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="849" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="850" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="851" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="852" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="853" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="854" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="855" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="856" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="857" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="858" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="859" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="860" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="861" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="862" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="863" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="864" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="865" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="866" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="867" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="868" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="869" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="870" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="871" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="872" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="873" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="874" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="875" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="876" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="877" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="878" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="879" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="880" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="881" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="882" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="883" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="884" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="885" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="886" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="887" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="888" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="889" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="890" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="891" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="892" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="893" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="894" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="895" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="896" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="897" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="898" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="899" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="900" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="901" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="902" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="903" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="904" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="905" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="906" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="907" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="908" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="909" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="910" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="911" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="912" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="913" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="914" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="915" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="916" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="917" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="918" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="919" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="920" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="921" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="922" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="923" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="924" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="925" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="926" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="927" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="928" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="929" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="930" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="931" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="932" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="933" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="934" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="935" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="936" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="937" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="938" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="939" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="940" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="941" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="942" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="943" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="944" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="945" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="946" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="947" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="948" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="949" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="950" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="951" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="952" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="953" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="954" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="955" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="956" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="957" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="958" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="959" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="960" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="961" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="962" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="963" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="964" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="965" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="966" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="967" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="968" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="969" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="970" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="971" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="972" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="973" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="974" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="975" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="976" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="977" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="978" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="979" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="980" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="981" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="982" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="983" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="984" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="985" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="986" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="987" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="988" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="989" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="990" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="991" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="992" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="993" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="994" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="995" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="996" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="997" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="998" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="999" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1011" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1012" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1013" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1014" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1015" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1016" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1017" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1018" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1019" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1020" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1021" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1022" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1023" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1024" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1025" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1026" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1027" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1028" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1029" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1030" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1031" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1032" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1033" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1034" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1035" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1036" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1037" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1038" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1039" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1040" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1041" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1042" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E307">
     <sortCondition descending="1" ref="D2:D307"/>
@@ -8079,7 +8805,7 @@
   <dimension ref="A1:D1042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22677,5 +23403,6 @@
     <sortCondition descending="1" ref="D2:D1042"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>